--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6452,28 +6452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.2685546222623</v>
+        <v>325.8835239270452</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.6919892696376</v>
+        <v>445.8882144033846</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.2722625745459</v>
+        <v>403.3332690287641</v>
       </c>
       <c r="AD2" t="n">
-        <v>248268.5546222623</v>
+        <v>325883.5239270452</v>
       </c>
       <c r="AE2" t="n">
-        <v>339691.9892696376</v>
+        <v>445888.2144033846</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840734694000457e-06</v>
+        <v>2.653721704358226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>307272.2625745459</v>
+        <v>403333.2690287641</v>
       </c>
     </row>
     <row r="3">
@@ -6558,28 +6558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.7628712932436</v>
+        <v>254.0258536610351</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.114908717873</v>
+        <v>347.5693798085903</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.812713921028</v>
+        <v>314.3978460164504</v>
       </c>
       <c r="AD3" t="n">
-        <v>193762.8712932437</v>
+        <v>254025.8536610351</v>
       </c>
       <c r="AE3" t="n">
-        <v>265114.908717873</v>
+        <v>347569.3798085903</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.277827780315017e-06</v>
+        <v>3.283863252598955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>239812.713921028</v>
+        <v>314397.8460164504</v>
       </c>
     </row>
     <row r="4">
@@ -6664,28 +6664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>176.9074663458514</v>
+        <v>228.6224217727311</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.0526000608774</v>
+        <v>312.8112835787117</v>
       </c>
       <c r="AC4" t="n">
-        <v>218.9514396340952</v>
+        <v>282.957013707446</v>
       </c>
       <c r="AD4" t="n">
-        <v>176907.4663458514</v>
+        <v>228622.4217727311</v>
       </c>
       <c r="AE4" t="n">
-        <v>242052.6000608774</v>
+        <v>312811.2835787117</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455643391312792e-06</v>
+        <v>3.540213691267004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.3828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>218951.4396340952</v>
+        <v>282957.013707446</v>
       </c>
     </row>
     <row r="5">
@@ -6770,28 +6770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.8979804381152</v>
+        <v>225.6129358649949</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.9348886727668</v>
+        <v>308.6935721906012</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.2267168416205</v>
+        <v>279.2322909149713</v>
       </c>
       <c r="AD5" t="n">
-        <v>173897.9804381152</v>
+        <v>225612.9358649949</v>
       </c>
       <c r="AE5" t="n">
-        <v>237934.8886727669</v>
+        <v>308693.5721906012</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.531386586073592e-06</v>
+        <v>3.649409959772887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>215226.7168416205</v>
+        <v>279232.2909149713</v>
       </c>
     </row>
     <row r="6">
@@ -6876,28 +6876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.6420779098879</v>
+        <v>214.4422846827883</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.5340662582811</v>
+        <v>293.4093944287648</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.2957273031784</v>
+        <v>265.4068136272414</v>
       </c>
       <c r="AD6" t="n">
-        <v>162642.0779098879</v>
+        <v>214442.2846827882</v>
       </c>
       <c r="AE6" t="n">
-        <v>222534.0662582811</v>
+        <v>293409.3944287648</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.598703496301681e-06</v>
+        <v>3.746458353723878e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>201295.7273031783</v>
+        <v>265406.8136272414</v>
       </c>
     </row>
     <row r="7">
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.0670175193083</v>
+        <v>212.8672242922085</v>
       </c>
       <c r="AB7" t="n">
-        <v>220.3789991451307</v>
+        <v>291.2543273156143</v>
       </c>
       <c r="AC7" t="n">
-        <v>199.3463367706507</v>
+        <v>263.4574230947136</v>
       </c>
       <c r="AD7" t="n">
-        <v>161067.0175193083</v>
+        <v>212867.2242922085</v>
       </c>
       <c r="AE7" t="n">
-        <v>220378.9991451307</v>
+        <v>291254.3273156143</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.63654008141948e-06</v>
+        <v>3.801006012043767e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>199346.3367706506</v>
+        <v>263457.4230947137</v>
       </c>
     </row>
     <row r="8">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>160.2976415820657</v>
+        <v>211.9272561543738</v>
       </c>
       <c r="AB8" t="n">
-        <v>219.3263050453252</v>
+        <v>289.9682214409619</v>
       </c>
       <c r="AC8" t="n">
-        <v>198.3941103182648</v>
+        <v>262.2940613596767</v>
       </c>
       <c r="AD8" t="n">
-        <v>160297.6415820657</v>
+        <v>211927.2561543738</v>
       </c>
       <c r="AE8" t="n">
-        <v>219326.3050453252</v>
+        <v>289968.2214409619</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.654279627804136e-06</v>
+        <v>3.826580484790907e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.4453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>198394.1103182647</v>
+        <v>262294.0613596767</v>
       </c>
     </row>
     <row r="9">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>159.691121910083</v>
+        <v>211.3207364823911</v>
       </c>
       <c r="AB9" t="n">
-        <v>218.4964380723595</v>
+        <v>289.1383544679962</v>
       </c>
       <c r="AC9" t="n">
-        <v>197.643444684473</v>
+        <v>261.543395725885</v>
       </c>
       <c r="AD9" t="n">
-        <v>159691.121910083</v>
+        <v>211320.7364823911</v>
       </c>
       <c r="AE9" t="n">
-        <v>218496.4380723595</v>
+        <v>289138.3544679962</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.667607629101029e-06</v>
+        <v>3.845794989973298e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>197643.444684473</v>
+        <v>261543.395725885</v>
       </c>
     </row>
     <row r="10">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>158.7893458590726</v>
+        <v>210.4189604313807</v>
       </c>
       <c r="AB10" t="n">
-        <v>217.262588295816</v>
+        <v>287.9045046914528</v>
       </c>
       <c r="AC10" t="n">
-        <v>196.5273517988834</v>
+        <v>260.4273028402954</v>
       </c>
       <c r="AD10" t="n">
-        <v>158789.3458590726</v>
+        <v>210418.9604313807</v>
       </c>
       <c r="AE10" t="n">
-        <v>217262.588295816</v>
+        <v>287904.5046914528</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.689035133813021e-06</v>
+        <v>3.876686261002081e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>196527.3517988834</v>
+        <v>260427.3028402954</v>
       </c>
     </row>
     <row r="11">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>158.0381246849976</v>
+        <v>209.6677392573057</v>
       </c>
       <c r="AB11" t="n">
-        <v>216.234734343908</v>
+        <v>286.8766507395447</v>
       </c>
       <c r="AC11" t="n">
-        <v>195.597594785543</v>
+        <v>259.497545826955</v>
       </c>
       <c r="AD11" t="n">
-        <v>158038.1246849976</v>
+        <v>209667.7392573057</v>
       </c>
       <c r="AE11" t="n">
-        <v>216234.734343908</v>
+        <v>286876.6507395447</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.708361902768936e-06</v>
+        <v>3.904548976047649e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>195597.594785543</v>
+        <v>259497.5458269551</v>
       </c>
     </row>
     <row r="12">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>157.6596718597311</v>
+        <v>209.2892864320391</v>
       </c>
       <c r="AB12" t="n">
-        <v>215.7169184922182</v>
+        <v>286.358834887855</v>
       </c>
       <c r="AC12" t="n">
-        <v>195.1291985519793</v>
+        <v>259.0291495933913</v>
       </c>
       <c r="AD12" t="n">
-        <v>157659.6718597311</v>
+        <v>209289.2864320391</v>
       </c>
       <c r="AE12" t="n">
-        <v>215716.9184922182</v>
+        <v>286358.834887855</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.707054778298487e-06</v>
+        <v>3.90266454121365e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>195129.1985519793</v>
+        <v>259029.1495933913</v>
       </c>
     </row>
     <row r="13">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>157.0440241823709</v>
+        <v>200.2109526683388</v>
       </c>
       <c r="AB13" t="n">
-        <v>214.8745621795959</v>
+        <v>273.9374581245472</v>
       </c>
       <c r="AC13" t="n">
-        <v>194.3672355435788</v>
+        <v>247.7932515948579</v>
       </c>
       <c r="AD13" t="n">
-        <v>157044.0241823709</v>
+        <v>200210.9526683388</v>
       </c>
       <c r="AE13" t="n">
-        <v>214874.5621795959</v>
+        <v>273937.4581245472</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.726801694405617e-06</v>
+        <v>3.931132967455861e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>194367.2355435788</v>
+        <v>247793.2515948579</v>
       </c>
     </row>
     <row r="14">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>156.7471918479103</v>
+        <v>199.9141203338782</v>
       </c>
       <c r="AB14" t="n">
-        <v>214.4684230842686</v>
+        <v>273.53131902922</v>
       </c>
       <c r="AC14" t="n">
-        <v>193.9998577934897</v>
+        <v>247.4258738447688</v>
       </c>
       <c r="AD14" t="n">
-        <v>156747.1918479103</v>
+        <v>199914.1203338782</v>
       </c>
       <c r="AE14" t="n">
-        <v>214468.4230842686</v>
+        <v>273531.31902922</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.726731669880415e-06</v>
+        <v>3.931032015589754e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>193999.8577934897</v>
+        <v>247425.8738447688</v>
       </c>
     </row>
     <row r="15">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>156.1023293819088</v>
+        <v>199.2692578678767</v>
       </c>
       <c r="AB15" t="n">
-        <v>213.5860938089617</v>
+        <v>272.6489897539131</v>
       </c>
       <c r="AC15" t="n">
-        <v>193.2017367858609</v>
+        <v>246.62775283714</v>
       </c>
       <c r="AD15" t="n">
-        <v>156102.3293819088</v>
+        <v>199269.2578678767</v>
       </c>
       <c r="AE15" t="n">
-        <v>213586.0938089617</v>
+        <v>272648.9897539131</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.742207089950187e-06</v>
+        <v>3.953342377999431e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>193201.7367858609</v>
+        <v>246627.75283714</v>
       </c>
     </row>
     <row r="16">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>155.9745175011699</v>
+        <v>199.1414459871379</v>
       </c>
       <c r="AB16" t="n">
-        <v>213.4112159550727</v>
+        <v>272.4741119000241</v>
       </c>
       <c r="AC16" t="n">
-        <v>193.0435490289044</v>
+        <v>246.4695650801834</v>
       </c>
       <c r="AD16" t="n">
-        <v>155974.5175011699</v>
+        <v>199141.4459871379</v>
       </c>
       <c r="AE16" t="n">
-        <v>213411.2159550727</v>
+        <v>272474.1119000241</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.74363092196264e-06</v>
+        <v>3.95539506594361e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>193043.5490289044</v>
+        <v>246469.5650801834</v>
       </c>
     </row>
     <row r="17">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>155.5795345512898</v>
+        <v>198.7464630372577</v>
       </c>
       <c r="AB17" t="n">
-        <v>212.870782857629</v>
+        <v>271.9336788025803</v>
       </c>
       <c r="AC17" t="n">
-        <v>192.5546941077779</v>
+        <v>245.980710159057</v>
       </c>
       <c r="AD17" t="n">
-        <v>155579.5345512898</v>
+        <v>198746.4630372577</v>
       </c>
       <c r="AE17" t="n">
-        <v>212870.782857629</v>
+        <v>271933.6788025803</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.746151804869933e-06</v>
+        <v>3.959029333123466e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>192554.6941077779</v>
+        <v>245980.710159057</v>
       </c>
     </row>
     <row r="18">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>155.152054429787</v>
+        <v>198.318982915755</v>
       </c>
       <c r="AB18" t="n">
-        <v>212.2858856962972</v>
+        <v>271.3487816412486</v>
       </c>
       <c r="AC18" t="n">
-        <v>192.0256187106151</v>
+        <v>245.4516347618942</v>
       </c>
       <c r="AD18" t="n">
-        <v>155152.054429787</v>
+        <v>198318.982915755</v>
       </c>
       <c r="AE18" t="n">
-        <v>212285.8856962972</v>
+        <v>271348.7816412486</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.74444787475667e-06</v>
+        <v>3.956572837714859e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>192025.6187106151</v>
+        <v>245451.6347618942</v>
       </c>
     </row>
     <row r="19">
@@ -8254,28 +8254,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>145.6453332742074</v>
+        <v>197.360199192536</v>
       </c>
       <c r="AB19" t="n">
-        <v>199.2783704043026</v>
+        <v>270.0369314525885</v>
       </c>
       <c r="AC19" t="n">
-        <v>180.2595224219219</v>
+        <v>244.2649857140461</v>
       </c>
       <c r="AD19" t="n">
-        <v>145645.3332742074</v>
+        <v>197360.199192536</v>
       </c>
       <c r="AE19" t="n">
-        <v>199278.3704043026</v>
+        <v>270036.9314525885</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.765315183267041e-06</v>
+        <v>3.986656493814785e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>180259.5224219219</v>
+        <v>244264.9857140461</v>
       </c>
     </row>
     <row r="20">
@@ -8360,28 +8360,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>145.6229549472278</v>
+        <v>197.3378208655564</v>
       </c>
       <c r="AB20" t="n">
-        <v>199.2477513900669</v>
+        <v>270.0063124383529</v>
       </c>
       <c r="AC20" t="n">
-        <v>180.2318256434309</v>
+        <v>244.2372889355551</v>
       </c>
       <c r="AD20" t="n">
-        <v>145622.9549472278</v>
+        <v>197337.8208655564</v>
       </c>
       <c r="AE20" t="n">
-        <v>199247.7513900669</v>
+        <v>270006.3124383529</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.764754987065421e-06</v>
+        <v>3.985848878885928e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>180231.8256434309</v>
+        <v>244237.2889355551</v>
       </c>
     </row>
     <row r="21">
@@ -8466,28 +8466,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>145.4683702364179</v>
+        <v>197.1832361547465</v>
       </c>
       <c r="AB21" t="n">
-        <v>199.0362417689408</v>
+        <v>269.7948028172268</v>
       </c>
       <c r="AC21" t="n">
-        <v>180.0405022036894</v>
+        <v>244.0459654958136</v>
       </c>
       <c r="AD21" t="n">
-        <v>145468.3702364179</v>
+        <v>197183.2361547465</v>
       </c>
       <c r="AE21" t="n">
-        <v>199036.2417689408</v>
+        <v>269794.8028172267</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.764661621031817e-06</v>
+        <v>3.985714276397786e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>180040.5022036894</v>
+        <v>244045.9654958136</v>
       </c>
     </row>
     <row r="22">
@@ -8572,28 +8572,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>145.1385980399066</v>
+        <v>196.8534639582353</v>
       </c>
       <c r="AB22" t="n">
-        <v>198.5850329011519</v>
+        <v>269.3435939494378</v>
       </c>
       <c r="AC22" t="n">
-        <v>179.6323560769665</v>
+        <v>243.6378193690907</v>
       </c>
       <c r="AD22" t="n">
-        <v>145138.5980399066</v>
+        <v>196853.4639582353</v>
       </c>
       <c r="AE22" t="n">
-        <v>198585.0329011519</v>
+        <v>269343.5939494378</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.765665305893054e-06</v>
+        <v>3.987161253145321e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>179632.3560769664</v>
+        <v>243637.8193690907</v>
       </c>
     </row>
     <row r="23">
@@ -8678,28 +8678,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>144.6377615381231</v>
+        <v>196.3526274564517</v>
       </c>
       <c r="AB23" t="n">
-        <v>197.8997663040649</v>
+        <v>268.6583273523509</v>
       </c>
       <c r="AC23" t="n">
-        <v>179.0124903621276</v>
+        <v>243.0179536542517</v>
       </c>
       <c r="AD23" t="n">
-        <v>144637.7615381231</v>
+        <v>196352.6274564517</v>
       </c>
       <c r="AE23" t="n">
-        <v>197899.7663040649</v>
+        <v>268658.3273523509</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.768232871817149e-06</v>
+        <v>3.990862821569249e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH23" t="n">
-        <v>179012.4903621275</v>
+        <v>243017.9536542517</v>
       </c>
     </row>
     <row r="24">
@@ -8784,28 +8784,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>144.1119004400124</v>
+        <v>195.826766358341</v>
       </c>
       <c r="AB24" t="n">
-        <v>197.1802599502759</v>
+        <v>267.9388209985619</v>
       </c>
       <c r="AC24" t="n">
-        <v>178.3616526849104</v>
+        <v>242.3671159770346</v>
       </c>
       <c r="AD24" t="n">
-        <v>144111.9004400124</v>
+        <v>195826.766358341</v>
       </c>
       <c r="AE24" t="n">
-        <v>197180.2599502759</v>
+        <v>267938.8209985619</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.768396262375955e-06</v>
+        <v>3.991098375923499e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH24" t="n">
-        <v>178361.6526849104</v>
+        <v>242367.1159770346</v>
       </c>
     </row>
     <row r="25">
@@ -8890,28 +8890,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>143.5584786900814</v>
+        <v>195.27334460841</v>
       </c>
       <c r="AB25" t="n">
-        <v>196.4230438967762</v>
+        <v>267.1816049450621</v>
       </c>
       <c r="AC25" t="n">
-        <v>177.676704268797</v>
+        <v>241.6821675609212</v>
       </c>
       <c r="AD25" t="n">
-        <v>143558.4786900814</v>
+        <v>195273.34460841</v>
       </c>
       <c r="AE25" t="n">
-        <v>196423.0438967762</v>
+        <v>267181.6049450621</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.766225502094675e-06</v>
+        <v>3.987968868074178e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>177676.704268797</v>
+        <v>241682.1675609213</v>
       </c>
     </row>
     <row r="26">
@@ -8996,28 +8996,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>142.9975279764824</v>
+        <v>194.712393894811</v>
       </c>
       <c r="AB26" t="n">
-        <v>195.6555263830315</v>
+        <v>266.4140874313175</v>
       </c>
       <c r="AC26" t="n">
-        <v>176.9824375493464</v>
+        <v>240.9879008414706</v>
       </c>
       <c r="AD26" t="n">
-        <v>142997.5279764824</v>
+        <v>194712.393894811</v>
       </c>
       <c r="AE26" t="n">
-        <v>195655.5263830315</v>
+        <v>266414.0874313175</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.785482246525387e-06</v>
+        <v>4.015730631253639e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>176982.4375493464</v>
+        <v>240987.9008414706</v>
       </c>
     </row>
   </sheetData>
@@ -9293,28 +9293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.5222228735928</v>
+        <v>272.7762704590479</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.2045723360762</v>
+        <v>373.2245272818031</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.3668026254997</v>
+        <v>337.604502221941</v>
       </c>
       <c r="AD2" t="n">
-        <v>205522.2228735928</v>
+        <v>272776.2704590479</v>
       </c>
       <c r="AE2" t="n">
-        <v>281204.5723360762</v>
+        <v>373224.5272818031</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.114771452524791e-06</v>
+        <v>3.095945851008703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>254366.8026254997</v>
+        <v>337604.502221941</v>
       </c>
     </row>
     <row r="3">
@@ -9399,28 +9399,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.84364497895</v>
+        <v>219.262934962947</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.0193239159974</v>
+        <v>300.0052208141552</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.9711638791788</v>
+        <v>271.3731435997128</v>
       </c>
       <c r="AD3" t="n">
-        <v>168843.64497895</v>
+        <v>219262.934962947</v>
       </c>
       <c r="AE3" t="n">
-        <v>231019.3239159974</v>
+        <v>300005.2208141552</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.530790878605214e-06</v>
+        <v>3.704982640575263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>208971.1638791788</v>
+        <v>271373.1435997128</v>
       </c>
     </row>
     <row r="4">
@@ -9505,28 +9505,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.1149939526851</v>
+        <v>205.6195352827026</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.2351779165336</v>
+        <v>281.3377194673407</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.9797504101833</v>
+        <v>254.4872423814295</v>
       </c>
       <c r="AD4" t="n">
-        <v>155114.9939526851</v>
+        <v>205619.5352827026</v>
       </c>
       <c r="AE4" t="n">
-        <v>212235.1779165335</v>
+        <v>281337.7194673407</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.678977727398271e-06</v>
+        <v>3.921922612574217e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.73177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>191979.7504101833</v>
+        <v>254487.2423814295</v>
       </c>
     </row>
     <row r="5">
@@ -9611,28 +9611,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.2741179395702</v>
+        <v>202.6080670689955</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.3481660247874</v>
+        <v>277.2172958007477</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.4637094779287</v>
+        <v>250.760066166524</v>
       </c>
       <c r="AD5" t="n">
-        <v>152274.1179395702</v>
+        <v>202608.0670689955</v>
       </c>
       <c r="AE5" t="n">
-        <v>208348.1660247874</v>
+        <v>277217.2958007477</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.762741810576225e-06</v>
+        <v>4.044550079229646e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>188463.7094779287</v>
+        <v>250760.066166524</v>
       </c>
     </row>
     <row r="6">
@@ -9717,28 +9717,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.2517017050259</v>
+        <v>201.5856508344513</v>
       </c>
       <c r="AB6" t="n">
-        <v>206.9492510268638</v>
+        <v>275.818380802824</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.198304964017</v>
+        <v>249.4946616526121</v>
       </c>
       <c r="AD6" t="n">
-        <v>151251.7017050259</v>
+        <v>201585.6508344513</v>
       </c>
       <c r="AE6" t="n">
-        <v>206949.2510268638</v>
+        <v>275818.380802824</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.79051024403101e-06</v>
+        <v>4.085202021188062e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.26302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>187198.3049640169</v>
+        <v>249494.6616526122</v>
       </c>
     </row>
     <row r="7">
@@ -9823,28 +9823,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.9166538055761</v>
+        <v>192.0038610891418</v>
       </c>
       <c r="AB7" t="n">
-        <v>205.122579592681</v>
+        <v>262.7081533545687</v>
       </c>
       <c r="AC7" t="n">
-        <v>185.5459684877625</v>
+        <v>237.6356559116943</v>
       </c>
       <c r="AD7" t="n">
-        <v>149916.6538055761</v>
+        <v>192003.8610891418</v>
       </c>
       <c r="AE7" t="n">
-        <v>205122.579592681</v>
+        <v>262708.1533545686</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.828275313529518e-06</v>
+        <v>4.140488662251508e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>185545.9684877625</v>
+        <v>237635.6559116943</v>
       </c>
     </row>
     <row r="8">
@@ -9929,28 +9929,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>149.0482197045619</v>
+        <v>191.1354269881276</v>
       </c>
       <c r="AB8" t="n">
-        <v>203.9343497430654</v>
+        <v>261.5199235049531</v>
       </c>
       <c r="AC8" t="n">
-        <v>184.4711416273028</v>
+        <v>236.5608290512345</v>
       </c>
       <c r="AD8" t="n">
-        <v>149048.219704562</v>
+        <v>191135.4269881276</v>
       </c>
       <c r="AE8" t="n">
-        <v>203934.3497430654</v>
+        <v>261519.9235049531</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.84727858059814e-06</v>
+        <v>4.168308730356963e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>184471.1416273028</v>
+        <v>236560.8290512345</v>
       </c>
     </row>
     <row r="9">
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.8497604840807</v>
+        <v>190.2689609595265</v>
       </c>
       <c r="AB9" t="n">
-        <v>191.3486120302288</v>
+        <v>260.3343864588384</v>
       </c>
       <c r="AC9" t="n">
-        <v>173.0865690575815</v>
+        <v>235.488437996889</v>
       </c>
       <c r="AD9" t="n">
-        <v>139849.7604840807</v>
+        <v>190268.9609595265</v>
       </c>
       <c r="AE9" t="n">
-        <v>191348.6120302289</v>
+        <v>260334.3864588384</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.863022075043809e-06</v>
+        <v>4.191356613971647e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>173086.5690575815</v>
+        <v>235488.437996889</v>
       </c>
     </row>
     <row r="10">
@@ -10141,28 +10141,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>139.2750045055114</v>
+        <v>189.6942049809573</v>
       </c>
       <c r="AB10" t="n">
-        <v>190.5622055439066</v>
+        <v>259.5479799725161</v>
       </c>
       <c r="AC10" t="n">
-        <v>172.3752161025852</v>
+        <v>234.7770850418926</v>
       </c>
       <c r="AD10" t="n">
-        <v>139275.0045055114</v>
+        <v>189694.2049809573</v>
       </c>
       <c r="AE10" t="n">
-        <v>190562.2055439066</v>
+        <v>259547.9799725161</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.877920443253898e-06</v>
+        <v>4.213167264570206e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>172375.2161025852</v>
+        <v>234777.0850418926</v>
       </c>
     </row>
     <row r="11">
@@ -10247,28 +10247,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>138.3796137599883</v>
+        <v>188.7988142354342</v>
       </c>
       <c r="AB11" t="n">
-        <v>189.3370924240307</v>
+        <v>258.3228668526402</v>
       </c>
       <c r="AC11" t="n">
-        <v>171.2670260594128</v>
+        <v>233.6688949987202</v>
       </c>
       <c r="AD11" t="n">
-        <v>138379.6137599883</v>
+        <v>188798.8142354342</v>
       </c>
       <c r="AE11" t="n">
-        <v>189337.0924240307</v>
+        <v>258322.8668526402</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.898831280968545e-06</v>
+        <v>4.24377994434063e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>171267.0260594128</v>
+        <v>233668.8949987202</v>
       </c>
     </row>
     <row r="12">
@@ -10353,28 +10353,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>138.053923295388</v>
+        <v>188.4731237708339</v>
       </c>
       <c r="AB12" t="n">
-        <v>188.8914683619156</v>
+        <v>257.8772427905251</v>
       </c>
       <c r="AC12" t="n">
-        <v>170.8639317323485</v>
+        <v>233.265800671656</v>
       </c>
       <c r="AD12" t="n">
-        <v>138053.9232953881</v>
+        <v>188473.1237708339</v>
       </c>
       <c r="AE12" t="n">
-        <v>188891.4683619156</v>
+        <v>257877.2427905251</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.899700553667999e-06</v>
+        <v>4.245052526871503e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>170863.9317323485</v>
+        <v>233265.800671656</v>
       </c>
     </row>
     <row r="13">
@@ -10459,28 +10459,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>137.3742021645059</v>
+        <v>187.7934026399517</v>
       </c>
       <c r="AB13" t="n">
-        <v>187.9614439234632</v>
+        <v>256.9472183520727</v>
       </c>
       <c r="AC13" t="n">
-        <v>170.0226675210042</v>
+        <v>232.4245364603116</v>
       </c>
       <c r="AD13" t="n">
-        <v>137374.2021645059</v>
+        <v>187793.4026399517</v>
       </c>
       <c r="AE13" t="n">
-        <v>187961.4439234632</v>
+        <v>256947.2183520727</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.914574775414214e-06</v>
+        <v>4.266827827955314e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH13" t="n">
-        <v>170022.6675210042</v>
+        <v>232424.5364603116</v>
       </c>
     </row>
     <row r="14">
@@ -10565,28 +10565,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>137.1406825436544</v>
+        <v>187.5598830191003</v>
       </c>
       <c r="AB14" t="n">
-        <v>187.6419320760558</v>
+        <v>256.6277065046653</v>
       </c>
       <c r="AC14" t="n">
-        <v>169.7336494358756</v>
+        <v>232.135518375183</v>
       </c>
       <c r="AD14" t="n">
-        <v>137140.6825436544</v>
+        <v>187559.8830191003</v>
       </c>
       <c r="AE14" t="n">
-        <v>187641.9320760558</v>
+        <v>256627.7065046653</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.915757952144027e-06</v>
+        <v>4.268559954177891e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH14" t="n">
-        <v>169733.6494358756</v>
+        <v>232135.518375183</v>
       </c>
     </row>
     <row r="15">
@@ -10671,28 +10671,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>136.436585264091</v>
+        <v>186.8557857395369</v>
       </c>
       <c r="AB15" t="n">
-        <v>186.678555115578</v>
+        <v>255.6643295441874</v>
       </c>
       <c r="AC15" t="n">
-        <v>168.8622158203974</v>
+        <v>231.2640847597048</v>
       </c>
       <c r="AD15" t="n">
-        <v>136436.585264091</v>
+        <v>186855.7857395369</v>
       </c>
       <c r="AE15" t="n">
-        <v>186678.5551155779</v>
+        <v>255664.3295441874</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.918679674272748e-06</v>
+        <v>4.272837245462211e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>168862.2158203974</v>
+        <v>231264.0847597048</v>
       </c>
     </row>
     <row r="16">
@@ -10777,28 +10777,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>135.6377108143381</v>
+        <v>186.056911289784</v>
       </c>
       <c r="AB16" t="n">
-        <v>185.5854998495732</v>
+        <v>254.5712742781827</v>
       </c>
       <c r="AC16" t="n">
-        <v>167.8734802148671</v>
+        <v>230.2753491541745</v>
       </c>
       <c r="AD16" t="n">
-        <v>135637.7108143381</v>
+        <v>186056.911289784</v>
       </c>
       <c r="AE16" t="n">
-        <v>185585.4998495732</v>
+        <v>254571.2742781827</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.935944395942461e-06</v>
+        <v>4.298112148505921e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH16" t="n">
-        <v>167873.4802148671</v>
+        <v>230275.3491541745</v>
       </c>
     </row>
     <row r="17">
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>135.4978774443055</v>
+        <v>185.9170779197514</v>
       </c>
       <c r="AB17" t="n">
-        <v>185.3941736636818</v>
+        <v>254.3799480922914</v>
       </c>
       <c r="AC17" t="n">
-        <v>167.7004139316292</v>
+        <v>230.1022828709366</v>
       </c>
       <c r="AD17" t="n">
-        <v>135497.8774443055</v>
+        <v>185917.0779197514</v>
       </c>
       <c r="AE17" t="n">
-        <v>185394.1736636818</v>
+        <v>254379.9480922914</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.937320744383264e-06</v>
+        <v>4.30012707084647e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH17" t="n">
-        <v>167700.4139316292</v>
+        <v>230102.2828709366</v>
       </c>
     </row>
     <row r="18">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>135.2175006244191</v>
+        <v>185.636701099865</v>
       </c>
       <c r="AB18" t="n">
-        <v>185.0105497293612</v>
+        <v>253.9963241579707</v>
       </c>
       <c r="AC18" t="n">
-        <v>167.3534025271803</v>
+        <v>229.7552714664878</v>
       </c>
       <c r="AD18" t="n">
-        <v>135217.5006244191</v>
+        <v>185636.701099865</v>
       </c>
       <c r="AE18" t="n">
-        <v>185010.5497293612</v>
+        <v>253996.3241579707</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.936234153508946e-06</v>
+        <v>4.298536342682879e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH18" t="n">
-        <v>167353.4025271803</v>
+        <v>229755.2714664878</v>
       </c>
     </row>
     <row r="19">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>135.204074850206</v>
+        <v>185.6232753256519</v>
       </c>
       <c r="AB19" t="n">
-        <v>184.9921799927795</v>
+        <v>253.977954421389</v>
       </c>
       <c r="AC19" t="n">
-        <v>167.3367859724759</v>
+        <v>229.7386549117833</v>
       </c>
       <c r="AD19" t="n">
-        <v>135204.074850206</v>
+        <v>185623.2753256519</v>
       </c>
       <c r="AE19" t="n">
-        <v>184992.1799927794</v>
+        <v>253977.954421389</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.936234153508946e-06</v>
+        <v>4.298536342682879e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH19" t="n">
-        <v>167336.7859724759</v>
+        <v>229738.6549117833</v>
       </c>
     </row>
   </sheetData>
@@ -11392,28 +11392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.1135466705114</v>
+        <v>178.7172790759498</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.7635829928427</v>
+        <v>244.5288656814994</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.5117603353386</v>
+        <v>221.1913739393465</v>
       </c>
       <c r="AD2" t="n">
-        <v>132113.5466705114</v>
+        <v>178717.2790759498</v>
       </c>
       <c r="AE2" t="n">
-        <v>180763.5829928427</v>
+        <v>244528.8656814994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.987678352548572e-06</v>
+        <v>4.622307189241005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>163511.7603353386</v>
+        <v>221191.3739393465</v>
       </c>
     </row>
     <row r="3">
@@ -11498,28 +11498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.2751641013579</v>
+        <v>164.7935556522247</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.8292974553849</v>
+        <v>225.4778130218439</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.3845364351331</v>
+        <v>203.9585270072021</v>
       </c>
       <c r="AD3" t="n">
-        <v>118275.1641013579</v>
+        <v>164793.5556522247</v>
       </c>
       <c r="AE3" t="n">
-        <v>161829.2974553849</v>
+        <v>225477.8130218439</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.265497277499001e-06</v>
+        <v>5.052127358139089e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>146384.5364351331</v>
+        <v>203958.5270072021</v>
       </c>
     </row>
     <row r="4">
@@ -11604,28 +11604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.1994998022815</v>
+        <v>154.9506921274596</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.9892819895439</v>
+        <v>212.0103729107752</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.8155680593643</v>
+        <v>191.7764004786586</v>
       </c>
       <c r="AD4" t="n">
-        <v>116199.4998022815</v>
+        <v>154950.6921274596</v>
       </c>
       <c r="AE4" t="n">
-        <v>158989.2819895439</v>
+        <v>212010.3729107752</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.351690929028089e-06</v>
+        <v>5.185479576188257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>143815.5680593643</v>
+        <v>191776.4004786586</v>
       </c>
     </row>
     <row r="5">
@@ -11710,28 +11710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.7138356383105</v>
+        <v>153.4650279634887</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.9565307375227</v>
+        <v>209.977621658754</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.9768197338511</v>
+        <v>189.9376521531454</v>
       </c>
       <c r="AD5" t="n">
-        <v>114713.8356383105</v>
+        <v>153465.0279634887</v>
       </c>
       <c r="AE5" t="n">
-        <v>156956.5307375227</v>
+        <v>209977.621658754</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.400809724507153e-06</v>
+        <v>5.26147241567048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>141976.8197338511</v>
+        <v>189937.6521531454</v>
       </c>
     </row>
     <row r="6">
@@ -11816,28 +11816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.6240118039451</v>
+        <v>152.3752041291232</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.4653856877104</v>
+        <v>208.4864766089417</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.6279874747571</v>
+        <v>188.5888198940515</v>
       </c>
       <c r="AD6" t="n">
-        <v>113624.0118039451</v>
+        <v>152375.2041291232</v>
       </c>
       <c r="AE6" t="n">
-        <v>155465.3856877104</v>
+        <v>208486.4766089417</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.43537879450147e-06</v>
+        <v>5.314955033912768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>140627.9874747571</v>
+        <v>188588.8198940514</v>
       </c>
     </row>
     <row r="7">
@@ -11922,28 +11922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.7712794415561</v>
+        <v>152.5224717667343</v>
       </c>
       <c r="AB7" t="n">
-        <v>155.6668837664794</v>
+        <v>208.6879746877107</v>
       </c>
       <c r="AC7" t="n">
-        <v>140.8102548596928</v>
+        <v>188.7710872789871</v>
       </c>
       <c r="AD7" t="n">
-        <v>113771.2794415561</v>
+        <v>152522.4717667343</v>
       </c>
       <c r="AE7" t="n">
-        <v>155666.8837664794</v>
+        <v>208687.9746877107</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.432603569084935e-06</v>
+        <v>5.310661417639226e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>140810.2548596928</v>
+        <v>188771.0872789871</v>
       </c>
     </row>
   </sheetData>
@@ -12219,28 +12219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.2221999032308</v>
+        <v>211.2871176308705</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.3818618276628</v>
+        <v>289.0923556721866</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.1124350147066</v>
+        <v>261.5017869905878</v>
       </c>
       <c r="AD2" t="n">
-        <v>155222.1999032308</v>
+        <v>211287.1176308705</v>
       </c>
       <c r="AE2" t="n">
-        <v>212381.8618276628</v>
+        <v>289092.3556721866</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.652108910130643e-06</v>
+        <v>4.008116199524909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>192112.4350147066</v>
+        <v>261501.7869905878</v>
       </c>
     </row>
     <row r="3">
@@ -12325,28 +12325,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.10337886018</v>
+        <v>186.0615797300546</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.9591356474894</v>
+        <v>254.5776618441181</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.9251409471588</v>
+        <v>230.2811270997821</v>
       </c>
       <c r="AD3" t="n">
-        <v>138103.3788601799</v>
+        <v>186061.5797300546</v>
       </c>
       <c r="AE3" t="n">
-        <v>188959.1356474894</v>
+        <v>254577.6618441181</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975448180302175e-06</v>
+        <v>4.496776888294753e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170925.1409471588</v>
+        <v>230281.1270997821</v>
       </c>
     </row>
     <row r="4">
@@ -12431,28 +12431,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.1946932257172</v>
+        <v>175.2381454416124</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.0333907051802</v>
+        <v>239.768561554458</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.4238881537242</v>
+        <v>216.8853865570597</v>
       </c>
       <c r="AD4" t="n">
-        <v>127194.6932257172</v>
+        <v>175238.1454416124</v>
       </c>
       <c r="AE4" t="n">
-        <v>174033.3907051802</v>
+        <v>239768.5615544581</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.083296674115767e-06</v>
+        <v>4.659767666500511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>157423.8881537242</v>
+        <v>216885.3865570597</v>
       </c>
     </row>
     <row r="5">
@@ -12537,28 +12537,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.3924443128733</v>
+        <v>173.4358965287685</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.5674742330179</v>
+        <v>237.3026450822958</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.1933152887288</v>
+        <v>214.6548136920643</v>
       </c>
       <c r="AD5" t="n">
-        <v>125392.4443128733</v>
+        <v>173435.8965287685</v>
       </c>
       <c r="AE5" t="n">
-        <v>171567.4742330179</v>
+        <v>237302.6450822958</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.147840801388528e-06</v>
+        <v>4.757312816746022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>155193.3152887288</v>
+        <v>214654.8136920643</v>
       </c>
     </row>
     <row r="6">
@@ -12643,28 +12643,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.2923147820253</v>
+        <v>164.4849831953193</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.0622284746229</v>
+        <v>225.0556105730501</v>
       </c>
       <c r="AC6" t="n">
-        <v>153.8317280728889</v>
+        <v>203.5766189675562</v>
       </c>
       <c r="AD6" t="n">
-        <v>124292.3147820253</v>
+        <v>164484.9831953193</v>
       </c>
       <c r="AE6" t="n">
-        <v>170062.2284746229</v>
+        <v>225055.6105730501</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.179210690721975e-06</v>
+        <v>4.804721941286272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>153831.7280728889</v>
+        <v>203576.6189675562</v>
       </c>
     </row>
     <row r="7">
@@ -12749,28 +12749,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>123.1270167213649</v>
+        <v>163.1490929340667</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.4678162587059</v>
+        <v>223.2277865822863</v>
       </c>
       <c r="AC7" t="n">
-        <v>152.3894843210869</v>
+        <v>201.9232399331032</v>
       </c>
       <c r="AD7" t="n">
-        <v>123127.0167213649</v>
+        <v>163149.0929340667</v>
       </c>
       <c r="AE7" t="n">
-        <v>168467.8162587059</v>
+        <v>223227.7865822863</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.212668469156497e-06</v>
+        <v>4.855286480031748e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>152389.4843210869</v>
+        <v>201923.2399331032</v>
       </c>
     </row>
     <row r="8">
@@ -12855,28 +12855,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.1073957418528</v>
+        <v>162.1294719545546</v>
       </c>
       <c r="AB8" t="n">
-        <v>167.0727258520354</v>
+        <v>221.8326961756157</v>
       </c>
       <c r="AC8" t="n">
-        <v>151.1275393848069</v>
+        <v>200.6612949968232</v>
       </c>
       <c r="AD8" t="n">
-        <v>122107.3957418528</v>
+        <v>162129.4719545546</v>
       </c>
       <c r="AE8" t="n">
-        <v>167072.7258520354</v>
+        <v>221832.6961756157</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.231485247474834e-06</v>
+        <v>4.883724163609713e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>151127.5393848069</v>
+        <v>200661.2949968232</v>
       </c>
     </row>
     <row r="9">
@@ -12961,28 +12961,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.7266373624549</v>
+        <v>161.7487135751567</v>
       </c>
       <c r="AB9" t="n">
-        <v>166.5517554394692</v>
+        <v>221.3117257630496</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.6562896572293</v>
+        <v>200.1900452692456</v>
       </c>
       <c r="AD9" t="n">
-        <v>121726.6373624549</v>
+        <v>161748.7135751567</v>
       </c>
       <c r="AE9" t="n">
-        <v>166551.7554394692</v>
+        <v>221311.7257630496</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.229552016825689e-06</v>
+        <v>4.880802483790059e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>150656.2896572293</v>
+        <v>200190.0452692456</v>
       </c>
     </row>
     <row r="10">
@@ -13067,28 +13067,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.3503942937799</v>
+        <v>161.3724705064817</v>
       </c>
       <c r="AB10" t="n">
-        <v>166.0369630742356</v>
+        <v>220.7969333978159</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.1906283528178</v>
+        <v>199.7243839648341</v>
       </c>
       <c r="AD10" t="n">
-        <v>121350.3942937799</v>
+        <v>161372.4705064817</v>
       </c>
       <c r="AE10" t="n">
-        <v>166036.9630742356</v>
+        <v>220796.9333978159</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.241641152485005e-06</v>
+        <v>4.899072721595628e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH10" t="n">
-        <v>150190.6283528178</v>
+        <v>199724.3839648341</v>
       </c>
     </row>
   </sheetData>
@@ -13364,28 +13364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.1845421934745</v>
+        <v>158.9786898877308</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.8100369137196</v>
+        <v>217.521657149095</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.9853597065685</v>
+        <v>196.761695484411</v>
       </c>
       <c r="AD2" t="n">
-        <v>121184.5421934745</v>
+        <v>158978.6898877308</v>
       </c>
       <c r="AE2" t="n">
-        <v>165810.0369137196</v>
+        <v>217521.657149095</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.279643461337834e-06</v>
+        <v>5.183437103249858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.10677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>149985.3597065685</v>
+        <v>196761.695484411</v>
       </c>
     </row>
     <row r="3">
@@ -13470,28 +13470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.2468247112926</v>
+        <v>146.9556315509772</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.4763251996806</v>
+        <v>201.0711783128584</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.2105145140038</v>
+        <v>181.8812272599075</v>
       </c>
       <c r="AD3" t="n">
-        <v>109246.8247112926</v>
+        <v>146955.6315509772</v>
       </c>
       <c r="AE3" t="n">
-        <v>149476.3251996806</v>
+        <v>201071.1783128584</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.514061615721635e-06</v>
+        <v>5.553932180971716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>135210.5145140038</v>
+        <v>181881.2272599075</v>
       </c>
     </row>
     <row r="4">
@@ -13576,28 +13576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.3295977641977</v>
+        <v>145.0384046038824</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.8530907085833</v>
+        <v>198.4479438217611</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.8376378410033</v>
+        <v>179.508350586907</v>
       </c>
       <c r="AD4" t="n">
-        <v>107329.5977641977</v>
+        <v>145038.4046038824</v>
       </c>
       <c r="AE4" t="n">
-        <v>146853.0907085833</v>
+        <v>198447.9438217611</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.588273976402766e-06</v>
+        <v>5.671223925763213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>132837.6378410033</v>
+        <v>179508.350586907</v>
       </c>
     </row>
     <row r="5">
@@ -13682,28 +13682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.5845616625321</v>
+        <v>145.2933685022168</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.2019435624976</v>
+        <v>198.7967966756754</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.1531966681582</v>
+        <v>179.8239094140619</v>
       </c>
       <c r="AD5" t="n">
-        <v>107584.5616625321</v>
+        <v>145293.3685022168</v>
       </c>
       <c r="AE5" t="n">
-        <v>147201.9435624976</v>
+        <v>198796.7966756754</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.582789201631461e-06</v>
+        <v>5.662555305107431e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>133153.1966681582</v>
+        <v>179823.9094140619</v>
       </c>
     </row>
   </sheetData>
@@ -13979,28 +13979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.1120312910338</v>
+        <v>287.7349003099669</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.1669918697294</v>
+        <v>393.6915845720042</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.4240368562992</v>
+        <v>356.1182122900606</v>
       </c>
       <c r="AD2" t="n">
-        <v>220112.0312910338</v>
+        <v>287734.9003099669</v>
       </c>
       <c r="AE2" t="n">
-        <v>301166.9918697294</v>
+        <v>393691.5845720042</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.040712699523934e-06</v>
+        <v>2.975127064237358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>272424.0368562991</v>
+        <v>356118.2122900606</v>
       </c>
     </row>
     <row r="3">
@@ -14085,28 +14085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.6860835385613</v>
+        <v>231.9200212510712</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.2767178696803</v>
+        <v>317.3232046647959</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.7267995327226</v>
+        <v>287.0383233775968</v>
       </c>
       <c r="AD3" t="n">
-        <v>172686.0835385614</v>
+        <v>231920.0212510712</v>
       </c>
       <c r="AE3" t="n">
-        <v>236276.7178696803</v>
+        <v>317323.204664796</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.466682760080049e-06</v>
+        <v>3.596142975007634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>213726.7995327226</v>
+        <v>287038.3233775969</v>
       </c>
     </row>
     <row r="4">
@@ -14191,28 +14191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.4934936905586</v>
+        <v>217.6420905484969</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.8577903067789</v>
+        <v>297.7875099796969</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.1611871617823</v>
+        <v>269.3670879747177</v>
       </c>
       <c r="AD4" t="n">
-        <v>158493.4936905586</v>
+        <v>217642.0905484969</v>
       </c>
       <c r="AE4" t="n">
-        <v>216857.7903067789</v>
+        <v>297787.5099796969</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.616529651782898e-06</v>
+        <v>3.814602703856771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>196161.1871617823</v>
+        <v>269367.0879747177</v>
       </c>
     </row>
     <row r="5">
@@ -14297,28 +14297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.7465610127639</v>
+        <v>206.5916569274052</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.0993158309051</v>
+        <v>282.6678191886022</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.7614162148327</v>
+        <v>255.690399252101</v>
       </c>
       <c r="AD5" t="n">
-        <v>155746.5610127639</v>
+        <v>206591.6569274052</v>
       </c>
       <c r="AE5" t="n">
-        <v>213099.3158309051</v>
+        <v>282667.8191886022</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.695186108670036e-06</v>
+        <v>3.929274873886651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>192761.4162148327</v>
+        <v>255690.399252101</v>
       </c>
     </row>
     <row r="6">
@@ -14403,28 +14403,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.9232994689805</v>
+        <v>204.5978031830296</v>
       </c>
       <c r="AB6" t="n">
-        <v>210.6046489500796</v>
+        <v>279.9397405329298</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.5048368398255</v>
+        <v>253.2226845944427</v>
       </c>
       <c r="AD6" t="n">
-        <v>153923.2994689805</v>
+        <v>204597.8031830296</v>
       </c>
       <c r="AE6" t="n">
-        <v>210604.6489500797</v>
+        <v>279939.7405329298</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.746060348810607e-06</v>
+        <v>4.003443731046227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.34114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>190504.8368398255</v>
+        <v>253222.6845944427</v>
       </c>
     </row>
     <row r="7">
@@ -14509,28 +14509,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>152.5536511558892</v>
+        <v>194.9246539266412</v>
       </c>
       <c r="AB7" t="n">
-        <v>208.73063570349</v>
+        <v>266.7045109711191</v>
       </c>
       <c r="AC7" t="n">
-        <v>188.8096767872956</v>
+        <v>241.2506067662457</v>
       </c>
       <c r="AD7" t="n">
-        <v>152553.6511558892</v>
+        <v>194924.6539266412</v>
       </c>
       <c r="AE7" t="n">
-        <v>208730.6357034899</v>
+        <v>266704.5109711192</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.783773332094492e-06</v>
+        <v>4.058424972289637e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>188809.6767872956</v>
+        <v>241250.6067662457</v>
       </c>
     </row>
     <row r="8">
@@ -14615,28 +14615,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>151.8827895376938</v>
+        <v>194.2537923084459</v>
       </c>
       <c r="AB8" t="n">
-        <v>207.8127332411498</v>
+        <v>265.786608508779</v>
       </c>
       <c r="AC8" t="n">
-        <v>187.9793776476766</v>
+        <v>240.4203076266268</v>
       </c>
       <c r="AD8" t="n">
-        <v>151882.7895376938</v>
+        <v>194253.7923084459</v>
       </c>
       <c r="AE8" t="n">
-        <v>207812.7332411498</v>
+        <v>265786.608508779</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.798585728447744e-06</v>
+        <v>4.080019761838921e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>187979.3776476767</v>
+        <v>240420.3076266268</v>
       </c>
     </row>
     <row r="9">
@@ -14721,28 +14721,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>151.0753409573</v>
+        <v>193.4463437280521</v>
       </c>
       <c r="AB9" t="n">
-        <v>206.7079464713382</v>
+        <v>264.6818217389674</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.9800301765976</v>
+        <v>239.4209601555477</v>
       </c>
       <c r="AD9" t="n">
-        <v>151075.3409573</v>
+        <v>193446.3437280521</v>
       </c>
       <c r="AE9" t="n">
-        <v>206707.9464713382</v>
+        <v>264681.8217389674</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.81808831815356e-06</v>
+        <v>4.108452319969239e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>186980.0301765976</v>
+        <v>239420.9601555477</v>
       </c>
     </row>
     <row r="10">
@@ -14827,28 +14827,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>141.8755244893591</v>
+        <v>192.6352795494287</v>
       </c>
       <c r="AB10" t="n">
-        <v>194.1203517126499</v>
+        <v>263.5720879481493</v>
       </c>
       <c r="AC10" t="n">
-        <v>175.5937777948742</v>
+        <v>238.4171378002037</v>
       </c>
       <c r="AD10" t="n">
-        <v>141875.5244893591</v>
+        <v>192635.2795494287</v>
       </c>
       <c r="AE10" t="n">
-        <v>194120.3517126499</v>
+        <v>263572.0879481493</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.834503994887536e-06</v>
+        <v>4.132384510002855e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>175593.7777948742</v>
+        <v>238417.1378002037</v>
       </c>
     </row>
     <row r="11">
@@ -14933,28 +14933,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>140.9446591737422</v>
+        <v>191.7044142338118</v>
       </c>
       <c r="AB11" t="n">
-        <v>192.8467007209441</v>
+        <v>262.2984369564435</v>
       </c>
       <c r="AC11" t="n">
-        <v>174.4416822662361</v>
+        <v>237.2650422715656</v>
       </c>
       <c r="AD11" t="n">
-        <v>140944.6591737422</v>
+        <v>191704.4142338118</v>
       </c>
       <c r="AE11" t="n">
-        <v>192846.7007209441</v>
+        <v>262298.4369564435</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.851876853938361e-06</v>
+        <v>4.157712163012193e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>174441.6822662361</v>
+        <v>237265.0422715656</v>
       </c>
     </row>
     <row r="12">
@@ -15039,28 +15039,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>140.7957486682115</v>
+        <v>191.5555037282812</v>
       </c>
       <c r="AB12" t="n">
-        <v>192.6429547978093</v>
+        <v>262.0946910333087</v>
       </c>
       <c r="AC12" t="n">
-        <v>174.257381568046</v>
+        <v>237.0807415733755</v>
       </c>
       <c r="AD12" t="n">
-        <v>140795.7486682115</v>
+        <v>191555.5037282812</v>
       </c>
       <c r="AE12" t="n">
-        <v>192642.9547978093</v>
+        <v>262094.6910333087</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.854317668846328e-06</v>
+        <v>4.161270593600282e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>174257.381568046</v>
+        <v>237080.7415733755</v>
       </c>
     </row>
     <row r="13">
@@ -15145,28 +15145,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>140.3524873168382</v>
+        <v>191.1122423769078</v>
       </c>
       <c r="AB13" t="n">
-        <v>192.0364650615498</v>
+        <v>261.4882012970493</v>
       </c>
       <c r="AC13" t="n">
-        <v>173.7087743610013</v>
+        <v>236.5321343663308</v>
       </c>
       <c r="AD13" t="n">
-        <v>140352.4873168382</v>
+        <v>191112.2423769078</v>
       </c>
       <c r="AE13" t="n">
-        <v>192036.4650615499</v>
+        <v>261488.2012970493</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.851493981011621e-06</v>
+        <v>4.157153977821905e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>173708.7743610013</v>
+        <v>236532.1343663308</v>
       </c>
     </row>
     <row r="14">
@@ -15251,28 +15251,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>139.7477681046827</v>
+        <v>190.5075231647523</v>
       </c>
       <c r="AB14" t="n">
-        <v>191.2090615571504</v>
+        <v>260.6607977926498</v>
       </c>
       <c r="AC14" t="n">
-        <v>172.9603370857933</v>
+        <v>235.7836970911228</v>
       </c>
       <c r="AD14" t="n">
-        <v>139747.7681046827</v>
+        <v>190507.5231647523</v>
       </c>
       <c r="AE14" t="n">
-        <v>191209.0615571504</v>
+        <v>260660.7977926498</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.871259795854571e-06</v>
+        <v>4.185970288270545e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>172960.3370857933</v>
+        <v>235783.6970911228</v>
       </c>
     </row>
     <row r="15">
@@ -15357,28 +15357,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>139.4382040147461</v>
+        <v>190.1979590748158</v>
       </c>
       <c r="AB15" t="n">
-        <v>190.7855023122956</v>
+        <v>260.2372385477951</v>
       </c>
       <c r="AC15" t="n">
-        <v>172.5772017407982</v>
+        <v>235.4005617461277</v>
       </c>
       <c r="AD15" t="n">
-        <v>139438.2040147461</v>
+        <v>190197.9590748158</v>
       </c>
       <c r="AE15" t="n">
-        <v>190785.5023122956</v>
+        <v>260237.2385477951</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.871929823476366e-06</v>
+        <v>4.186947112353549e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>172577.2017407982</v>
+        <v>235400.5617461277</v>
       </c>
     </row>
     <row r="16">
@@ -15463,28 +15463,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>138.9126353361803</v>
+        <v>189.6723903962499</v>
       </c>
       <c r="AB16" t="n">
-        <v>190.0663960598285</v>
+        <v>259.5181322953279</v>
       </c>
       <c r="AC16" t="n">
-        <v>171.9267259797943</v>
+        <v>234.7500859851239</v>
       </c>
       <c r="AD16" t="n">
-        <v>138912.6353361803</v>
+        <v>189672.3903962499</v>
       </c>
       <c r="AE16" t="n">
-        <v>190066.3960598285</v>
+        <v>259518.1322953279</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.870398331769406e-06</v>
+        <v>4.184714371592396e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH16" t="n">
-        <v>171926.7259797943</v>
+        <v>234750.0859851238</v>
       </c>
     </row>
     <row r="17">
@@ -15569,28 +15569,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>138.1835889192274</v>
+        <v>188.943343979297</v>
       </c>
       <c r="AB17" t="n">
-        <v>189.0688825888961</v>
+        <v>258.5206188243955</v>
       </c>
       <c r="AC17" t="n">
-        <v>171.0244137945084</v>
+        <v>233.847773799838</v>
       </c>
       <c r="AD17" t="n">
-        <v>138183.5889192274</v>
+        <v>188943.343979297</v>
       </c>
       <c r="AE17" t="n">
-        <v>189068.8825888961</v>
+        <v>258520.6188243955</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.890714526444545e-06</v>
+        <v>4.214333073252076e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH17" t="n">
-        <v>171024.4137945084</v>
+        <v>233847.773799838</v>
       </c>
     </row>
     <row r="18">
@@ -15675,28 +15675,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>138.0275543935202</v>
+        <v>188.7873094535898</v>
       </c>
       <c r="AB18" t="n">
-        <v>188.8553892670662</v>
+        <v>258.3071255025657</v>
       </c>
       <c r="AC18" t="n">
-        <v>170.8312959756742</v>
+        <v>233.6546559810037</v>
       </c>
       <c r="AD18" t="n">
-        <v>138027.5543935202</v>
+        <v>188787.3094535898</v>
       </c>
       <c r="AE18" t="n">
-        <v>188855.3892670662</v>
+        <v>258307.1255025656</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.891217047160891e-06</v>
+        <v>4.21506569131433e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH18" t="n">
-        <v>170831.2959756742</v>
+        <v>233654.6559810037</v>
       </c>
     </row>
     <row r="19">
@@ -15781,28 +15781,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>137.6765602071216</v>
+        <v>188.4363152671913</v>
       </c>
       <c r="AB19" t="n">
-        <v>188.3751435364652</v>
+        <v>257.8268797719646</v>
       </c>
       <c r="AC19" t="n">
-        <v>170.3968842235725</v>
+        <v>233.220244228902</v>
       </c>
       <c r="AD19" t="n">
-        <v>137676.5602071216</v>
+        <v>188436.3152671913</v>
       </c>
       <c r="AE19" t="n">
-        <v>188375.1435364652</v>
+        <v>257826.8797719647</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.891504201855945e-06</v>
+        <v>4.215484330207046e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH19" t="n">
-        <v>170396.8842235725</v>
+        <v>233220.244228902</v>
       </c>
     </row>
     <row r="20">
@@ -15887,28 +15887,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>137.0397965233793</v>
+        <v>187.7995515834489</v>
       </c>
       <c r="AB20" t="n">
-        <v>187.5038953723383</v>
+        <v>256.9556316078378</v>
       </c>
       <c r="AC20" t="n">
-        <v>169.6087867614251</v>
+        <v>232.4321467667546</v>
       </c>
       <c r="AD20" t="n">
-        <v>137039.7965233793</v>
+        <v>187799.5515834489</v>
       </c>
       <c r="AE20" t="n">
-        <v>187503.8953723383</v>
+        <v>256955.6316078378</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.895667944934242e-06</v>
+        <v>4.221554594151432e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>169608.7867614251</v>
+        <v>232432.1467667547</v>
       </c>
     </row>
     <row r="21">
@@ -15993,28 +15993,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>137.1270388317114</v>
+        <v>187.8867938917811</v>
       </c>
       <c r="AB21" t="n">
-        <v>187.6232641474573</v>
+        <v>257.0750003829568</v>
       </c>
       <c r="AC21" t="n">
-        <v>169.7167631481819</v>
+        <v>232.5401231535115</v>
       </c>
       <c r="AD21" t="n">
-        <v>137127.0388317114</v>
+        <v>187886.7938917811</v>
       </c>
       <c r="AE21" t="n">
-        <v>187623.2641474573</v>
+        <v>257075.0003829568</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.893346777815882e-06</v>
+        <v>4.218170596435309e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>169716.7631481819</v>
+        <v>232540.1231535115</v>
       </c>
     </row>
   </sheetData>
@@ -16290,28 +16290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.6131010045873</v>
+        <v>152.1399320362779</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.2409923493645</v>
+        <v>208.1645669520387</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.1885186936118</v>
+        <v>188.2976328430002</v>
       </c>
       <c r="AD2" t="n">
-        <v>107613.1010045874</v>
+        <v>152139.9320362779</v>
       </c>
       <c r="AE2" t="n">
-        <v>147240.9923493645</v>
+        <v>208164.5669520387</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.455213951103206e-06</v>
+        <v>5.536064371401346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133188.5186936118</v>
+        <v>188297.6328430002</v>
       </c>
     </row>
     <row r="3">
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.0579078472868</v>
+        <v>141.1494664064847</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.3766202274957</v>
+        <v>193.1269270122396</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.7883954198635</v>
+        <v>174.6951641535905</v>
       </c>
       <c r="AD3" t="n">
-        <v>104057.9078472868</v>
+        <v>141149.4664064847</v>
       </c>
       <c r="AE3" t="n">
-        <v>142376.6202274957</v>
+        <v>193126.9270122396</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.655908008137745e-06</v>
+        <v>5.857623393338657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>128788.3954198635</v>
+        <v>174695.1641535905</v>
       </c>
     </row>
     <row r="4">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.9106712493359</v>
+        <v>141.0022298085339</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.1751646185592</v>
+        <v>192.9254714033031</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.6061664514991</v>
+        <v>174.5129351852262</v>
       </c>
       <c r="AD4" t="n">
-        <v>103910.671249336</v>
+        <v>141002.2298085339</v>
       </c>
       <c r="AE4" t="n">
-        <v>142175.1646185592</v>
+        <v>192925.4714033031</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.668394111001195e-06</v>
+        <v>5.877629063082474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>128606.1664514991</v>
+        <v>174512.9351852261</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.8843660417271</v>
+        <v>237.5168557955366</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.1257255563181</v>
+        <v>324.9810406034434</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.63583174892</v>
+        <v>293.9653062021025</v>
       </c>
       <c r="AD2" t="n">
-        <v>179884.3660417271</v>
+        <v>237516.8557955366</v>
       </c>
       <c r="AE2" t="n">
-        <v>246125.7255563181</v>
+        <v>324981.0406034434</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.356526131822908e-06</v>
+        <v>3.499071795695076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>222635.83174892</v>
+        <v>293965.3062021025</v>
       </c>
     </row>
     <row r="3">
@@ -16905,28 +16905,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.509733378372</v>
+        <v>198.9090103102088</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.5658131121183</v>
+        <v>272.1560831525114</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.0423390186779</v>
+        <v>246.1818885499772</v>
       </c>
       <c r="AD3" t="n">
-        <v>149509.733378372</v>
+        <v>198909.0103102088</v>
       </c>
       <c r="AE3" t="n">
-        <v>204565.8131121183</v>
+        <v>272156.0831525114</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.729626598440464e-06</v>
+        <v>4.053067485397985e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.86197916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>185042.3390186779</v>
+        <v>246181.8885499772</v>
       </c>
     </row>
     <row r="4">
@@ -17011,28 +17011,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.5649991331471</v>
+        <v>194.7936838643917</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.1684536884118</v>
+        <v>266.5253119539581</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.1600960031267</v>
+        <v>241.0885102517749</v>
       </c>
       <c r="AD4" t="n">
-        <v>145564.9991331471</v>
+        <v>194793.6838643917</v>
       </c>
       <c r="AE4" t="n">
-        <v>199168.4536884118</v>
+        <v>266525.3119539581</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.861780341100493e-06</v>
+        <v>4.249295071161929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.31510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>180160.0960031267</v>
+        <v>241088.5102517749</v>
       </c>
     </row>
     <row r="5">
@@ -17117,28 +17117,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.416342220129</v>
+        <v>184.582495838544</v>
       </c>
       <c r="AB5" t="n">
-        <v>196.228566507969</v>
+        <v>252.5539140111783</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.5007875290269</v>
+        <v>228.4505229196695</v>
       </c>
       <c r="AD5" t="n">
-        <v>143416.342220129</v>
+        <v>184582.495838544</v>
       </c>
       <c r="AE5" t="n">
-        <v>196228.566507969</v>
+        <v>252553.9140111783</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.931837746847979e-06</v>
+        <v>4.353319333494622e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.0546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>177500.7875290269</v>
+        <v>228450.5229196695</v>
       </c>
     </row>
     <row r="6">
@@ -17223,28 +17223,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.5191440918554</v>
+        <v>182.8330801691205</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.6867833953064</v>
+        <v>250.1602863135019</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.2514131906205</v>
+        <v>226.285339689981</v>
       </c>
       <c r="AD6" t="n">
-        <v>133519.1440918554</v>
+        <v>182833.0801691205</v>
       </c>
       <c r="AE6" t="n">
-        <v>182686.7833953064</v>
+        <v>250160.2863135019</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.98231589892953e-06</v>
+        <v>4.42827147421658e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>165251.4131906205</v>
+        <v>226285.339689981</v>
       </c>
     </row>
     <row r="7">
@@ -17329,28 +17329,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.8059493835298</v>
+        <v>182.119885460795</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.710958931446</v>
+        <v>249.1844618496415</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.3687200440124</v>
+        <v>225.4026465433729</v>
       </c>
       <c r="AD7" t="n">
-        <v>132805.9493835299</v>
+        <v>182119.885460795</v>
       </c>
       <c r="AE7" t="n">
-        <v>181710.958931446</v>
+        <v>249184.4618496415</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.99709363295439e-06</v>
+        <v>4.450214092052382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>164368.7200440124</v>
+        <v>225402.6465433729</v>
       </c>
     </row>
     <row r="8">
@@ -17435,28 +17435,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.9650016006892</v>
+        <v>181.2789376779543</v>
       </c>
       <c r="AB8" t="n">
-        <v>180.5603370749662</v>
+        <v>248.0338399931617</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.3279119226067</v>
+        <v>224.3618384219672</v>
       </c>
       <c r="AD8" t="n">
-        <v>131965.0016006892</v>
+        <v>181278.9376779543</v>
       </c>
       <c r="AE8" t="n">
-        <v>180560.3370749662</v>
+        <v>248033.8399931617</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.015254821234101e-06</v>
+        <v>4.477180608921297e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>163327.9119226067</v>
+        <v>224361.8384219672</v>
       </c>
     </row>
     <row r="9">
@@ -17541,28 +17541,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.29111641982</v>
+        <v>180.6050524970852</v>
       </c>
       <c r="AB9" t="n">
-        <v>179.6382976407855</v>
+        <v>247.111800558981</v>
       </c>
       <c r="AC9" t="n">
-        <v>162.4938706379335</v>
+        <v>223.527797137294</v>
       </c>
       <c r="AD9" t="n">
-        <v>131291.11641982</v>
+        <v>180605.0524970852</v>
       </c>
       <c r="AE9" t="n">
-        <v>179638.2976407855</v>
+        <v>247111.800558981</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.030256460319944e-06</v>
+        <v>4.499455690663704e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>162493.8706379335</v>
+        <v>223527.797137294</v>
       </c>
     </row>
     <row r="10">
@@ -17647,28 +17647,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>130.4523152773136</v>
+        <v>179.7662513545787</v>
       </c>
       <c r="AB10" t="n">
-        <v>178.4906129123141</v>
+        <v>245.9641158305096</v>
       </c>
       <c r="AC10" t="n">
-        <v>161.4557193291614</v>
+        <v>222.4896458285219</v>
       </c>
       <c r="AD10" t="n">
-        <v>130452.3152773136</v>
+        <v>179766.2513545787</v>
       </c>
       <c r="AE10" t="n">
-        <v>178490.6129123141</v>
+        <v>245964.1158305096</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.052248912976469e-06</v>
+        <v>4.532111034378937e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>161455.7193291614</v>
+        <v>222489.6458285219</v>
       </c>
     </row>
     <row r="11">
@@ -17753,28 +17753,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.9053120815403</v>
+        <v>179.2192481588055</v>
       </c>
       <c r="AB11" t="n">
-        <v>177.7421790077796</v>
+        <v>245.2156819259751</v>
       </c>
       <c r="AC11" t="n">
-        <v>160.7787149060419</v>
+        <v>221.8126414054023</v>
       </c>
       <c r="AD11" t="n">
-        <v>129905.3120815403</v>
+        <v>179219.2481588055</v>
       </c>
       <c r="AE11" t="n">
-        <v>177742.1790077796</v>
+        <v>245215.6819259751</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.048193743538671e-06</v>
+        <v>4.526089743626015e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH11" t="n">
-        <v>160778.7149060419</v>
+        <v>221812.6414054023</v>
       </c>
     </row>
     <row r="12">
@@ -17859,28 +17859,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>129.3430826212865</v>
+        <v>170.594487585722</v>
       </c>
       <c r="AB12" t="n">
-        <v>176.9729118564475</v>
+        <v>233.414904012306</v>
       </c>
       <c r="AC12" t="n">
-        <v>160.0828655319594</v>
+        <v>211.1381131733143</v>
       </c>
       <c r="AD12" t="n">
-        <v>129343.0826212865</v>
+        <v>170594.4875857221</v>
       </c>
       <c r="AE12" t="n">
-        <v>176972.9118564475</v>
+        <v>233414.904012306</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.067076403681548e-06</v>
+        <v>4.554127533082874e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>160082.8655319594</v>
+        <v>211138.1131733143</v>
       </c>
     </row>
     <row r="13">
@@ -17965,28 +17965,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>128.5939311007548</v>
+        <v>169.8453360651903</v>
       </c>
       <c r="AB13" t="n">
-        <v>175.947889695824</v>
+        <v>232.3898818516825</v>
       </c>
       <c r="AC13" t="n">
-        <v>159.1556700477178</v>
+        <v>210.2109176890727</v>
       </c>
       <c r="AD13" t="n">
-        <v>128593.9311007548</v>
+        <v>169845.3360651903</v>
       </c>
       <c r="AE13" t="n">
-        <v>175947.8896958239</v>
+        <v>232389.8818516825</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.06886764416941e-06</v>
+        <v>4.556787244335699e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>159155.6700477178</v>
+        <v>210210.9176890727</v>
       </c>
     </row>
     <row r="14">
@@ -18071,28 +18071,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>127.9041811475505</v>
+        <v>168.9849939113939</v>
       </c>
       <c r="AB14" t="n">
-        <v>175.00414338023</v>
+        <v>231.2127237612417</v>
       </c>
       <c r="AC14" t="n">
-        <v>158.3019935559276</v>
+        <v>209.1461059146314</v>
       </c>
       <c r="AD14" t="n">
-        <v>127904.1811475505</v>
+        <v>168984.9939113939</v>
       </c>
       <c r="AE14" t="n">
-        <v>175004.14338023</v>
+        <v>231212.7237612417</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.085038565240385e-06</v>
+        <v>4.580798526479253e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>158301.9935559276</v>
+        <v>209146.1059146314</v>
       </c>
     </row>
   </sheetData>
@@ -18368,28 +18368,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.3746224144547</v>
+        <v>257.7989139199602</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.7931541748966</v>
+        <v>352.7318473105198</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.7581584081209</v>
+        <v>319.0676148655661</v>
       </c>
       <c r="AD2" t="n">
-        <v>199374.6224144547</v>
+        <v>257798.9139199602</v>
       </c>
       <c r="AE2" t="n">
-        <v>272793.1541748967</v>
+        <v>352731.8473105198</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.195407941289853e-06</v>
+        <v>3.228221095918404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>246758.1584081209</v>
+        <v>319067.6148655661</v>
       </c>
     </row>
     <row r="3">
@@ -18474,28 +18474,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.2508849704373</v>
+        <v>215.3166703542963</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.1035511709677</v>
+        <v>294.6057674796947</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.5245455856027</v>
+        <v>266.489006513311</v>
       </c>
       <c r="AD3" t="n">
-        <v>165250.8849704373</v>
+        <v>215316.6703542963</v>
       </c>
       <c r="AE3" t="n">
-        <v>226103.5511709677</v>
+        <v>294605.7674796947</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.592782506980268e-06</v>
+        <v>3.812537537440213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>204524.5455856027</v>
+        <v>266489.0065133111</v>
       </c>
     </row>
     <row r="4">
@@ -18580,28 +18580,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.1815748546016</v>
+        <v>202.3326115844812</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.2215444932207</v>
+        <v>276.840405454597</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.3491725276202</v>
+        <v>250.4191457060409</v>
       </c>
       <c r="AD4" t="n">
-        <v>152181.5748546016</v>
+        <v>202332.6115844812</v>
       </c>
       <c r="AE4" t="n">
-        <v>208221.5444932207</v>
+        <v>276840.405454597</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.728458303363095e-06</v>
+        <v>4.01204099183295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>188349.1725276202</v>
+        <v>250419.1457060409</v>
       </c>
     </row>
     <row r="5">
@@ -18686,28 +18686,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.61073868871</v>
+        <v>199.5911832179974</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.7040130337625</v>
+        <v>273.089462220292</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.1673493337652</v>
+        <v>247.0261872295348</v>
       </c>
       <c r="AD5" t="n">
-        <v>149610.73868871</v>
+        <v>199591.1832179973</v>
       </c>
       <c r="AE5" t="n">
-        <v>204704.0130337625</v>
+        <v>273089.462220292</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.808630364862038e-06</v>
+        <v>4.129929396701386e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>185167.3493337652</v>
+        <v>247026.1872295348</v>
       </c>
     </row>
     <row r="6">
@@ -18792,28 +18792,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.8874465914653</v>
+        <v>189.6800667082493</v>
       </c>
       <c r="AB6" t="n">
-        <v>202.3461287600318</v>
+        <v>259.5286353640604</v>
       </c>
       <c r="AC6" t="n">
-        <v>183.0344982258072</v>
+        <v>234.7595866557176</v>
       </c>
       <c r="AD6" t="n">
-        <v>147887.4465914653</v>
+        <v>189680.0667082493</v>
       </c>
       <c r="AE6" t="n">
-        <v>202346.1287600318</v>
+        <v>259528.6353640604</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.860258344872607e-06</v>
+        <v>4.205845371621223e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>183034.4982258072</v>
+        <v>234759.5866557176</v>
       </c>
     </row>
     <row r="7">
@@ -18898,28 +18898,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.2242089608246</v>
+        <v>188.2899048361325</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.1244607218392</v>
+        <v>257.6265545610179</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.0746876284479</v>
+        <v>233.0390377749297</v>
       </c>
       <c r="AD7" t="n">
-        <v>138224.2089608246</v>
+        <v>188289.9048361325</v>
       </c>
       <c r="AE7" t="n">
-        <v>189124.4607218392</v>
+        <v>257626.5545610179</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.894238233510347e-06</v>
+        <v>4.255810843310673e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>171074.6876284479</v>
+        <v>233039.0377749297</v>
       </c>
     </row>
     <row r="8">
@@ -19004,28 +19004,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.496922756201</v>
+        <v>187.5626186315089</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.1293556510707</v>
+        <v>256.6314494902495</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.1745539889945</v>
+        <v>232.1389041354763</v>
       </c>
       <c r="AD8" t="n">
-        <v>137496.922756201</v>
+        <v>187562.6186315089</v>
       </c>
       <c r="AE8" t="n">
-        <v>188129.3556510707</v>
+        <v>256631.4494902494</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.912958860822962e-06</v>
+        <v>4.283338448947328e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.8984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>170174.5539889945</v>
+        <v>232138.9041354763</v>
       </c>
     </row>
     <row r="9">
@@ -19110,28 +19110,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.9515486894627</v>
+        <v>187.0172445647706</v>
       </c>
       <c r="AB9" t="n">
-        <v>187.3831507927541</v>
+        <v>255.8852446319327</v>
       </c>
       <c r="AC9" t="n">
-        <v>169.4995658750502</v>
+        <v>231.463916021532</v>
       </c>
       <c r="AD9" t="n">
-        <v>136951.5486894627</v>
+        <v>187017.2445647706</v>
       </c>
       <c r="AE9" t="n">
-        <v>187383.1507927541</v>
+        <v>255885.2446319327</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.925683037199504e-06</v>
+        <v>4.302048618403491e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>169499.5658750502</v>
+        <v>231463.916021532</v>
       </c>
     </row>
     <row r="10">
@@ -19216,28 +19216,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.4028413515116</v>
+        <v>186.4685372268194</v>
       </c>
       <c r="AB10" t="n">
-        <v>186.6323852057104</v>
+        <v>255.1344790448891</v>
       </c>
       <c r="AC10" t="n">
-        <v>168.8204523019277</v>
+        <v>230.7848024484095</v>
       </c>
       <c r="AD10" t="n">
-        <v>136402.8413515116</v>
+        <v>186468.5372268195</v>
       </c>
       <c r="AE10" t="n">
-        <v>186632.3852057104</v>
+        <v>255134.4790448891</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.926950579673796e-06</v>
+        <v>4.303912466701807e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>168820.4523019277</v>
+        <v>230784.8024484095</v>
       </c>
     </row>
     <row r="11">
@@ -19322,28 +19322,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.741670902592</v>
+        <v>185.8073667778999</v>
       </c>
       <c r="AB11" t="n">
-        <v>185.7277426287176</v>
+        <v>254.2298364678963</v>
       </c>
       <c r="AC11" t="n">
-        <v>168.002147542809</v>
+        <v>229.9664976892907</v>
       </c>
       <c r="AD11" t="n">
-        <v>135741.670902592</v>
+        <v>185807.3667778999</v>
       </c>
       <c r="AE11" t="n">
-        <v>185727.7426287176</v>
+        <v>254229.8364678963</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.947206883445648e-06</v>
+        <v>4.333698196238344e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>168002.147542809</v>
+        <v>229966.4976892907</v>
       </c>
     </row>
     <row r="12">
@@ -19428,28 +19428,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.2167372780054</v>
+        <v>185.2824331533133</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.0095052851214</v>
+        <v>253.5115991243001</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.3524577632329</v>
+        <v>229.3168079097147</v>
       </c>
       <c r="AD12" t="n">
-        <v>135216.7372780054</v>
+        <v>185282.4331533133</v>
       </c>
       <c r="AE12" t="n">
-        <v>185009.5052851214</v>
+        <v>253511.5991243001</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.945427448818277e-06</v>
+        <v>4.331081639973401e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH12" t="n">
-        <v>167352.4577632329</v>
+        <v>229316.8079097147</v>
       </c>
     </row>
     <row r="13">
@@ -19534,28 +19534,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>134.637527043153</v>
+        <v>184.7032229184609</v>
       </c>
       <c r="AB13" t="n">
-        <v>184.2170042888447</v>
+        <v>252.7190981280234</v>
       </c>
       <c r="AC13" t="n">
-        <v>166.6355919497585</v>
+        <v>228.5999420962403</v>
       </c>
       <c r="AD13" t="n">
-        <v>134637.527043153</v>
+        <v>184703.2229184609</v>
       </c>
       <c r="AE13" t="n">
-        <v>184217.0042888447</v>
+        <v>252719.0981280234</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.964830599001664e-06</v>
+        <v>4.359612856232226e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>166635.5919497585</v>
+        <v>228599.9420962403</v>
       </c>
     </row>
     <row r="14">
@@ -19640,28 +19640,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>134.087770255914</v>
+        <v>184.1534661312219</v>
       </c>
       <c r="AB14" t="n">
-        <v>183.4648027989869</v>
+        <v>251.9668966381656</v>
       </c>
       <c r="AC14" t="n">
-        <v>165.9551795143711</v>
+        <v>227.9195296608528</v>
       </c>
       <c r="AD14" t="n">
-        <v>134087.770255914</v>
+        <v>184153.4661312219</v>
       </c>
       <c r="AE14" t="n">
-        <v>183464.8027989869</v>
+        <v>251966.8966381656</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.967828824469699e-06</v>
+        <v>4.364021574322471e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>165955.1795143711</v>
+        <v>227919.5296608529</v>
       </c>
     </row>
     <row r="15">
@@ -19746,28 +19746,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>133.4394341491329</v>
+        <v>183.5051300244409</v>
       </c>
       <c r="AB15" t="n">
-        <v>182.5777207351192</v>
+        <v>251.0798145742979</v>
       </c>
       <c r="AC15" t="n">
-        <v>165.1527593176511</v>
+        <v>227.1171094641329</v>
       </c>
       <c r="AD15" t="n">
-        <v>133439.434149133</v>
+        <v>183505.1300244408</v>
       </c>
       <c r="AE15" t="n">
-        <v>182577.7207351192</v>
+        <v>251079.8145742979</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.964416210115838e-06</v>
+        <v>4.359003521211623e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH15" t="n">
-        <v>165152.7593176511</v>
+        <v>227117.1094641329</v>
       </c>
     </row>
     <row r="16">
@@ -19852,28 +19852,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>133.057179476279</v>
+        <v>183.1228753515869</v>
       </c>
       <c r="AB16" t="n">
-        <v>182.0547030278347</v>
+        <v>250.5567968670134</v>
       </c>
       <c r="AC16" t="n">
-        <v>164.6796576862897</v>
+        <v>226.6440078327715</v>
       </c>
       <c r="AD16" t="n">
-        <v>133057.179476279</v>
+        <v>183122.8753515869</v>
       </c>
       <c r="AE16" t="n">
-        <v>182054.7030278347</v>
+        <v>250556.7968670134</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.98245431455768e-06</v>
+        <v>4.385527516226108e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>164679.6576862897</v>
+        <v>226644.0078327715</v>
       </c>
     </row>
     <row r="17">
@@ -19958,28 +19958,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>133.005843474971</v>
+        <v>183.0715393502789</v>
       </c>
       <c r="AB17" t="n">
-        <v>181.9844628460606</v>
+        <v>250.4865566852393</v>
       </c>
       <c r="AC17" t="n">
-        <v>164.6161211288814</v>
+        <v>226.5804712753632</v>
       </c>
       <c r="AD17" t="n">
-        <v>133005.843474971</v>
+        <v>183071.5393502789</v>
       </c>
       <c r="AE17" t="n">
-        <v>181984.4628460606</v>
+        <v>250486.5566852393</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.982259308023174e-06</v>
+        <v>4.38524077033406e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>164616.1211288814</v>
+        <v>226580.4712753632</v>
       </c>
     </row>
   </sheetData>
@@ -20255,28 +20255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.2255150029197</v>
+        <v>309.7962253235356</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.0553917454793</v>
+        <v>423.876862732538</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.5553683930406</v>
+        <v>383.4226498682571</v>
       </c>
       <c r="AD2" t="n">
-        <v>241225.5150029197</v>
+        <v>309796.2253235356</v>
       </c>
       <c r="AE2" t="n">
-        <v>330055.3917454793</v>
+        <v>423876.862732538</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.907940787075727e-06</v>
+        <v>2.760356275086788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>298555.3683930406</v>
+        <v>383422.6498682571</v>
       </c>
     </row>
     <row r="3">
@@ -20361,28 +20361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.7750981880658</v>
+        <v>241.2671589465911</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.6586616272382</v>
+        <v>330.1123708264116</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.8772033948308</v>
+        <v>298.6069094704595</v>
       </c>
       <c r="AD3" t="n">
-        <v>189775.0981880657</v>
+        <v>241267.1589465911</v>
       </c>
       <c r="AE3" t="n">
-        <v>259658.6616272383</v>
+        <v>330112.3708264116</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.33356413880216e-06</v>
+        <v>3.376136438559387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>234877.2033948308</v>
+        <v>298606.9094704594</v>
       </c>
     </row>
     <row r="4">
@@ -20467,28 +20467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.4981402977397</v>
+        <v>224.9048602016935</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.3878097530034</v>
+        <v>307.7247518299792</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.7318503661289</v>
+        <v>278.3559334098188</v>
       </c>
       <c r="AD4" t="n">
-        <v>173498.1402977397</v>
+        <v>224904.8602016935</v>
       </c>
       <c r="AE4" t="n">
-        <v>237387.8097530034</v>
+        <v>307724.7518299792</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.511224831388467e-06</v>
+        <v>3.633171044108397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.20052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>214731.8503661289</v>
+        <v>278355.9334098187</v>
       </c>
     </row>
     <row r="5">
@@ -20573,28 +20573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.6222766457256</v>
+        <v>213.1142478957</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.1387291781984</v>
+        <v>291.5923159078234</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.0335592356504</v>
+        <v>263.7631545300524</v>
       </c>
       <c r="AD5" t="n">
-        <v>161622.2766457256</v>
+        <v>213114.2478957</v>
       </c>
       <c r="AE5" t="n">
-        <v>221138.7291781984</v>
+        <v>291592.3159078234</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593573185785511e-06</v>
+        <v>3.752310379219182e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.80989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>200033.5592356503</v>
+        <v>263763.1545300524</v>
       </c>
     </row>
     <row r="6">
@@ -20679,28 +20679,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.8377184105935</v>
+        <v>211.329689660568</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.6970178717391</v>
+        <v>289.1506046013641</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.8248814293153</v>
+        <v>261.5544767237174</v>
       </c>
       <c r="AD6" t="n">
-        <v>159837.7184105935</v>
+        <v>211329.689660568</v>
       </c>
       <c r="AE6" t="n">
-        <v>218697.0178717391</v>
+        <v>289150.6046013641</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.642370467791073e-06</v>
+        <v>3.82290894522483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>197824.8814293153</v>
+        <v>261554.4767237174</v>
       </c>
     </row>
     <row r="7">
@@ -20785,28 +20785,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>158.5164821159772</v>
+        <v>209.8378611653594</v>
       </c>
       <c r="AB7" t="n">
-        <v>216.8892440846144</v>
+        <v>287.1094190393926</v>
       </c>
       <c r="AC7" t="n">
-        <v>196.1896390352069</v>
+        <v>259.7080990469579</v>
       </c>
       <c r="AD7" t="n">
-        <v>158516.4821159772</v>
+        <v>209837.8611653594</v>
       </c>
       <c r="AE7" t="n">
-        <v>216889.2440846144</v>
+        <v>287109.4190393926</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.676439158410193e-06</v>
+        <v>3.872198590150663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.4453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>196189.6390352069</v>
+        <v>259708.0990469579</v>
       </c>
     </row>
     <row r="8">
@@ -20891,28 +20891,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>157.0940997531241</v>
+        <v>208.4154788025063</v>
       </c>
       <c r="AB8" t="n">
-        <v>214.9430777846787</v>
+        <v>285.1632527394568</v>
       </c>
       <c r="AC8" t="n">
-        <v>194.4292121154748</v>
+        <v>257.9476721272259</v>
       </c>
       <c r="AD8" t="n">
-        <v>157094.0997531241</v>
+        <v>208415.4788025063</v>
       </c>
       <c r="AE8" t="n">
-        <v>214943.0777846787</v>
+        <v>285163.2527394568</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.712601850041123e-06</v>
+        <v>3.924517778169313e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.2890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>194429.2121154748</v>
+        <v>257947.6721272258</v>
       </c>
     </row>
     <row r="9">
@@ -20997,28 +20997,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.3401118663219</v>
+        <v>207.6614909157041</v>
       </c>
       <c r="AB9" t="n">
-        <v>213.9114382943584</v>
+        <v>284.1316132491366</v>
       </c>
       <c r="AC9" t="n">
-        <v>193.4960308501953</v>
+        <v>257.0144908619463</v>
       </c>
       <c r="AD9" t="n">
-        <v>156340.1118663219</v>
+        <v>207661.4909157041</v>
       </c>
       <c r="AE9" t="n">
-        <v>213911.4382943584</v>
+        <v>284131.6132491366</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.730718488008473e-06</v>
+        <v>3.950728431893685e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>193496.0308501953</v>
+        <v>257014.4908619463</v>
       </c>
     </row>
     <row r="10">
@@ -21103,28 +21103,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>156.1880200102324</v>
+        <v>207.5093990596145</v>
       </c>
       <c r="AB10" t="n">
-        <v>213.7033395070377</v>
+        <v>283.9235144618158</v>
       </c>
       <c r="AC10" t="n">
-        <v>193.3077927190679</v>
+        <v>256.8262527308189</v>
       </c>
       <c r="AD10" t="n">
-        <v>156188.0200102324</v>
+        <v>207509.3990596145</v>
       </c>
       <c r="AE10" t="n">
-        <v>213703.3395070377</v>
+        <v>283923.5144618158</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.727895115857717e-06</v>
+        <v>3.946643654689888e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>193307.7927190679</v>
+        <v>256826.2527308189</v>
       </c>
     </row>
     <row r="11">
@@ -21209,28 +21209,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>155.4547583525338</v>
+        <v>198.3648239027302</v>
       </c>
       <c r="AB11" t="n">
-        <v>212.7000585577539</v>
+        <v>271.4115033019897</v>
       </c>
       <c r="AC11" t="n">
-        <v>192.4002634954697</v>
+        <v>245.5083703553647</v>
       </c>
       <c r="AD11" t="n">
-        <v>155454.7583525339</v>
+        <v>198364.8239027302</v>
       </c>
       <c r="AE11" t="n">
-        <v>212700.0585577539</v>
+        <v>271411.5033019898</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.748152811039389e-06</v>
+        <v>3.97595193112714e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>192400.2634954698</v>
+        <v>245508.3703553647</v>
       </c>
     </row>
     <row r="12">
@@ -21315,28 +21315,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>154.4539365335546</v>
+        <v>197.3640020837509</v>
       </c>
       <c r="AB12" t="n">
-        <v>211.3306899918846</v>
+        <v>270.0421347361205</v>
       </c>
       <c r="AC12" t="n">
-        <v>191.1615855436058</v>
+        <v>244.2696924035007</v>
       </c>
       <c r="AD12" t="n">
-        <v>154453.9365335546</v>
+        <v>197364.0020837509</v>
       </c>
       <c r="AE12" t="n">
-        <v>211330.6899918846</v>
+        <v>270042.1347361205</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.768292865714781e-06</v>
+        <v>4.005090008514236e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>191161.5855436058</v>
+        <v>244269.6924035007</v>
       </c>
     </row>
     <row r="13">
@@ -21421,28 +21421,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>154.5301420611406</v>
+        <v>197.4402076113369</v>
       </c>
       <c r="AB13" t="n">
-        <v>211.4349577566784</v>
+        <v>270.1464025009143</v>
       </c>
       <c r="AC13" t="n">
-        <v>191.2559021392684</v>
+        <v>244.3640089991633</v>
       </c>
       <c r="AD13" t="n">
-        <v>154530.1420611406</v>
+        <v>197440.207611337</v>
       </c>
       <c r="AE13" t="n">
-        <v>211434.9577566784</v>
+        <v>270146.4025009143</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.765657718374075e-06</v>
+        <v>4.00127754979069e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>191255.9021392683</v>
+        <v>244364.0089991633</v>
       </c>
     </row>
     <row r="14">
@@ -21527,28 +21527,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>153.9910305453472</v>
+        <v>196.9010960955436</v>
       </c>
       <c r="AB14" t="n">
-        <v>210.6973215968487</v>
+        <v>269.4087663410846</v>
       </c>
       <c r="AC14" t="n">
-        <v>190.5886649392537</v>
+        <v>243.6967717991487</v>
       </c>
       <c r="AD14" t="n">
-        <v>153991.0305453472</v>
+        <v>196901.0960955436</v>
       </c>
       <c r="AE14" t="n">
-        <v>210697.3215968487</v>
+        <v>269408.7663410846</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.765940055589151e-06</v>
+        <v>4.00168602751107e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>190588.6649392537</v>
+        <v>243696.7717991487</v>
       </c>
     </row>
     <row r="15">
@@ -21633,28 +21633,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>153.4448325346297</v>
+        <v>196.3548980848261</v>
       </c>
       <c r="AB15" t="n">
-        <v>209.9499893820298</v>
+        <v>268.6614341262658</v>
       </c>
       <c r="AC15" t="n">
-        <v>189.9126570621296</v>
+        <v>243.0207639220245</v>
       </c>
       <c r="AD15" t="n">
-        <v>153444.8325346297</v>
+        <v>196354.8980848261</v>
       </c>
       <c r="AE15" t="n">
-        <v>209949.9893820298</v>
+        <v>268661.4341262658</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.78495076140424e-06</v>
+        <v>4.029190194016645e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.00260416666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>189912.6570621296</v>
+        <v>243020.7639220245</v>
       </c>
     </row>
     <row r="16">
@@ -21739,28 +21739,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>144.4949942376313</v>
+        <v>195.9016246330341</v>
       </c>
       <c r="AB16" t="n">
-        <v>197.7044257850834</v>
+        <v>268.0412453925108</v>
       </c>
       <c r="AC16" t="n">
-        <v>178.8357928681154</v>
+        <v>242.4597651305787</v>
       </c>
       <c r="AD16" t="n">
-        <v>144494.9942376313</v>
+        <v>195901.6246330341</v>
       </c>
       <c r="AE16" t="n">
-        <v>197704.4257850834</v>
+        <v>268041.2453925108</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.786691840897206e-06</v>
+        <v>4.031709139958987e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>178835.7928681154</v>
+        <v>242459.7651305787</v>
       </c>
     </row>
     <row r="17">
@@ -21845,28 +21845,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>143.9913875349858</v>
+        <v>195.3980179303886</v>
       </c>
       <c r="AB17" t="n">
-        <v>197.0153688769645</v>
+        <v>267.3521884843919</v>
       </c>
       <c r="AC17" t="n">
-        <v>178.2124985842097</v>
+        <v>241.836470846673</v>
       </c>
       <c r="AD17" t="n">
-        <v>143991.3875349858</v>
+        <v>195398.0179303886</v>
       </c>
       <c r="AE17" t="n">
-        <v>197015.3688769645</v>
+        <v>267352.188484392</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.786856537606e-06</v>
+        <v>4.031947418629209e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>178212.4985842097</v>
+        <v>241836.470846673</v>
       </c>
     </row>
     <row r="18">
@@ -21951,28 +21951,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>143.0943931743627</v>
+        <v>194.5010235697654</v>
       </c>
       <c r="AB18" t="n">
-        <v>195.7880616201623</v>
+        <v>266.1248812275897</v>
       </c>
       <c r="AC18" t="n">
-        <v>177.1023238094597</v>
+        <v>240.726296071923</v>
       </c>
       <c r="AD18" t="n">
-        <v>143094.3931743627</v>
+        <v>194501.0235697654</v>
       </c>
       <c r="AE18" t="n">
-        <v>195788.0616201623</v>
+        <v>266124.8812275897</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.80579665911732e-06</v>
+        <v>4.059349465704689e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>177102.3238094597</v>
+        <v>240726.296071923</v>
       </c>
     </row>
     <row r="19">
@@ -22057,28 +22057,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>143.2671466893663</v>
+        <v>194.673777084769</v>
       </c>
       <c r="AB19" t="n">
-        <v>196.0244306007372</v>
+        <v>266.3612502081646</v>
       </c>
       <c r="AC19" t="n">
-        <v>177.3161340662746</v>
+        <v>240.9401063287379</v>
       </c>
       <c r="AD19" t="n">
-        <v>143267.1466893663</v>
+        <v>194673.777084769</v>
       </c>
       <c r="AE19" t="n">
-        <v>196024.4306007372</v>
+        <v>266361.2502081646</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.803185039877871e-06</v>
+        <v>4.055571046791176e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>177316.1340662746</v>
+        <v>240940.1063287379</v>
       </c>
     </row>
     <row r="20">
@@ -22163,28 +22163,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>142.9635219628019</v>
+        <v>194.3701523582046</v>
       </c>
       <c r="AB20" t="n">
-        <v>195.6089978548745</v>
+        <v>265.9458174623019</v>
       </c>
       <c r="AC20" t="n">
-        <v>176.9403496386134</v>
+        <v>240.5643219010767</v>
       </c>
       <c r="AD20" t="n">
-        <v>142963.5219628019</v>
+        <v>194370.1523582047</v>
       </c>
       <c r="AE20" t="n">
-        <v>195608.9978548745</v>
+        <v>265945.8174623019</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.80598488392737e-06</v>
+        <v>4.059621784184943e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>176940.3496386134</v>
+        <v>240564.3219010767</v>
       </c>
     </row>
     <row r="21">
@@ -22269,28 +22269,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>142.6929255416624</v>
+        <v>194.0995559370651</v>
       </c>
       <c r="AB21" t="n">
-        <v>195.2387558936001</v>
+        <v>265.5755755010275</v>
       </c>
       <c r="AC21" t="n">
-        <v>176.605443050485</v>
+        <v>240.2294153129483</v>
       </c>
       <c r="AD21" t="n">
-        <v>142692.9255416624</v>
+        <v>194099.5559370651</v>
       </c>
       <c r="AE21" t="n">
-        <v>195238.7558936001</v>
+        <v>265575.5755010275</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.805231984687169e-06</v>
+        <v>4.05853251026393e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>176605.443050485</v>
+        <v>240229.4153129483</v>
       </c>
     </row>
     <row r="22">
@@ -22375,28 +22375,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>142.1381706163721</v>
+        <v>193.5448010117748</v>
       </c>
       <c r="AB22" t="n">
-        <v>194.4797157307582</v>
+        <v>264.8165353381856</v>
       </c>
       <c r="AC22" t="n">
-        <v>175.918844615465</v>
+        <v>239.5428168779283</v>
       </c>
       <c r="AD22" t="n">
-        <v>142138.1706163721</v>
+        <v>193544.8010117748</v>
       </c>
       <c r="AE22" t="n">
-        <v>194479.7157307582</v>
+        <v>264816.5353381857</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.808384750255513e-06</v>
+        <v>4.063093844808171e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>175918.844615465</v>
+        <v>239542.8168779283</v>
       </c>
     </row>
     <row r="23">
@@ -22481,28 +22481,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>141.5516581457073</v>
+        <v>192.95828854111</v>
       </c>
       <c r="AB23" t="n">
-        <v>193.677223493291</v>
+        <v>264.0140431007184</v>
       </c>
       <c r="AC23" t="n">
-        <v>175.1929411108365</v>
+        <v>238.8169133732998</v>
       </c>
       <c r="AD23" t="n">
-        <v>141551.6581457073</v>
+        <v>192958.28854111</v>
       </c>
       <c r="AE23" t="n">
-        <v>193677.223493291</v>
+        <v>264014.0431007184</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.808855312280639e-06</v>
+        <v>4.063774641008805e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>175192.9411108365</v>
+        <v>238816.9133732998</v>
       </c>
     </row>
     <row r="24">
@@ -22587,28 +22587,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>140.9439114749</v>
+        <v>192.3505418703027</v>
       </c>
       <c r="AB24" t="n">
-        <v>192.845677686402</v>
+        <v>263.1824972938295</v>
       </c>
       <c r="AC24" t="n">
-        <v>174.4407568686749</v>
+        <v>238.0647291311382</v>
       </c>
       <c r="AD24" t="n">
-        <v>140943.9114749</v>
+        <v>192350.5418703027</v>
       </c>
       <c r="AE24" t="n">
-        <v>192845.6776864021</v>
+        <v>263182.4972938295</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.808949424685664e-06</v>
+        <v>4.063910800248932e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>174440.7568686749</v>
+        <v>238064.7291311382</v>
       </c>
     </row>
     <row r="25">
@@ -22693,28 +22693,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>140.2772097431396</v>
+        <v>191.6838401385423</v>
       </c>
       <c r="AB25" t="n">
-        <v>191.9334669642034</v>
+        <v>262.2702865716308</v>
       </c>
       <c r="AC25" t="n">
-        <v>173.6156062575068</v>
+        <v>237.2395785199701</v>
       </c>
       <c r="AD25" t="n">
-        <v>140277.2097431396</v>
+        <v>191683.8401385423</v>
       </c>
       <c r="AE25" t="n">
-        <v>191933.4669642034</v>
+        <v>262270.2865716309</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.829418872778643e-06</v>
+        <v>4.093525434976469e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>173615.6062575068</v>
+        <v>237239.5785199701</v>
       </c>
     </row>
   </sheetData>
@@ -22990,28 +22990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.7760857097817</v>
+        <v>217.3510306175257</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.9268863434168</v>
+        <v>297.3892689414844</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.8875484187882</v>
+        <v>269.0068545022573</v>
       </c>
       <c r="AD2" t="n">
-        <v>168776.0857097817</v>
+        <v>217351.0306175257</v>
       </c>
       <c r="AE2" t="n">
-        <v>230926.8863434168</v>
+        <v>297389.2689414844</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.547569680763324e-06</v>
+        <v>3.825646192783861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>208887.5484187882</v>
+        <v>269006.8545022573</v>
       </c>
     </row>
     <row r="3">
@@ -23096,28 +23096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.3763948818112</v>
+        <v>190.9512502810042</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.8056646804447</v>
+        <v>261.2679248089641</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.2136854548658</v>
+        <v>236.3328807571083</v>
       </c>
       <c r="AD3" t="n">
-        <v>142376.3948818112</v>
+        <v>190951.2502810042</v>
       </c>
       <c r="AE3" t="n">
-        <v>194805.6646804447</v>
+        <v>261267.9248089641</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.873607488657509e-06</v>
+        <v>4.315252152492197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>176213.6854548658</v>
+        <v>236332.8807571083</v>
       </c>
     </row>
     <row r="4">
@@ -23202,28 +23202,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.8461381278726</v>
+        <v>179.3252738024178</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.9754116457723</v>
+        <v>245.3607508890868</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.8444249905182</v>
+        <v>221.9438651902802</v>
       </c>
       <c r="AD4" t="n">
-        <v>138846.1381278727</v>
+        <v>179325.2738024178</v>
       </c>
       <c r="AE4" t="n">
-        <v>189975.4116457723</v>
+        <v>245360.7508890868</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.002327388300018e-06</v>
+        <v>4.508548845305456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>171844.4249905182</v>
+        <v>221943.8651902802</v>
       </c>
     </row>
     <row r="5">
@@ -23308,28 +23308,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.9182128571362</v>
+        <v>177.4077274017575</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.3915863012062</v>
+        <v>242.7370793075279</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.5570208718146</v>
+        <v>219.5705931421183</v>
       </c>
       <c r="AD5" t="n">
-        <v>128918.2128571362</v>
+        <v>177407.7274017575</v>
       </c>
       <c r="AE5" t="n">
-        <v>176391.5863012062</v>
+        <v>242737.0793075279</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.06201656462228e-06</v>
+        <v>4.59818316301301e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>159557.0208718146</v>
+        <v>219570.5931421183</v>
       </c>
     </row>
     <row r="6">
@@ -23414,28 +23414,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.3481970847307</v>
+        <v>175.837711629352</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.2434214571946</v>
+        <v>240.5889144635163</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.6138738655465</v>
+        <v>217.6274461358502</v>
       </c>
       <c r="AD6" t="n">
-        <v>127348.1970847307</v>
+        <v>175837.711629352</v>
       </c>
       <c r="AE6" t="n">
-        <v>174243.4214571946</v>
+        <v>240588.9144635163</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.115215020278369e-06</v>
+        <v>4.678070465362172e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>157613.8738655465</v>
+        <v>217627.4461358502</v>
       </c>
     </row>
     <row r="7">
@@ -23520,28 +23520,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>126.5606705847323</v>
+        <v>175.0501851293536</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.1658929566802</v>
+        <v>239.5113859630019</v>
       </c>
       <c r="AC7" t="n">
-        <v>156.6391831728001</v>
+        <v>216.6527554431038</v>
       </c>
       <c r="AD7" t="n">
-        <v>126560.6705847323</v>
+        <v>175050.1851293536</v>
       </c>
       <c r="AE7" t="n">
-        <v>173165.8929566802</v>
+        <v>239511.3859630019</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.133949021887404e-06</v>
+        <v>4.706203027337763e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>156639.1831728001</v>
+        <v>216652.7554431038</v>
       </c>
     </row>
     <row r="8">
@@ -23626,28 +23626,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.8541049439834</v>
+        <v>166.4184919645492</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.1991386755321</v>
+        <v>227.7011225714958</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.7646945633963</v>
+        <v>205.9696470138705</v>
       </c>
       <c r="AD8" t="n">
-        <v>125854.1049439834</v>
+        <v>166418.4919645492</v>
       </c>
       <c r="AE8" t="n">
-        <v>172199.1386755321</v>
+        <v>227701.1225714958</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.146650471347877e-06</v>
+        <v>4.725276598568495e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>155764.6945633963</v>
+        <v>205969.6470138705</v>
       </c>
     </row>
     <row r="9">
@@ -23732,28 +23732,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>124.9412939249977</v>
+        <v>165.3350887449712</v>
       </c>
       <c r="AB9" t="n">
-        <v>170.9501903689763</v>
+        <v>226.2187624900932</v>
       </c>
       <c r="AC9" t="n">
-        <v>154.6349441303078</v>
+        <v>204.628761298131</v>
       </c>
       <c r="AD9" t="n">
-        <v>124941.2939249976</v>
+        <v>165335.0887449712</v>
       </c>
       <c r="AE9" t="n">
-        <v>170950.1903689763</v>
+        <v>226218.7624900932</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.168744375419401e-06</v>
+        <v>4.758454674376664e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>154634.9441303078</v>
+        <v>204628.761298131</v>
       </c>
     </row>
     <row r="10">
@@ -23838,28 +23838,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.0887781065472</v>
+        <v>164.4825729265207</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.7837406158295</v>
+        <v>225.0523127369463</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.5798187044784</v>
+        <v>203.5736358723016</v>
       </c>
       <c r="AD10" t="n">
-        <v>124088.7781065472</v>
+        <v>164482.5729265207</v>
       </c>
       <c r="AE10" t="n">
-        <v>169783.7406158294</v>
+        <v>225052.3127369463</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.180504034038116e-06</v>
+        <v>4.776113972790689e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>153579.8187044784</v>
+        <v>203573.6358723016</v>
       </c>
     </row>
     <row r="11">
@@ -23944,28 +23944,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.8773349879276</v>
+        <v>164.2711298079011</v>
       </c>
       <c r="AB11" t="n">
-        <v>169.4944348127222</v>
+        <v>224.763006933839</v>
       </c>
       <c r="AC11" t="n">
-        <v>153.3181238411764</v>
+        <v>203.3119410089996</v>
       </c>
       <c r="AD11" t="n">
-        <v>123877.3349879275</v>
+        <v>164271.1298079011</v>
       </c>
       <c r="AE11" t="n">
-        <v>169494.4348127222</v>
+        <v>224763.006933839</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.181165833008e-06</v>
+        <v>4.777107786121349e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>153318.1238411764</v>
+        <v>203311.9410089996</v>
       </c>
     </row>
     <row r="12">
@@ -24050,28 +24050,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>124.0869428117405</v>
+        <v>164.480737631714</v>
       </c>
       <c r="AB12" t="n">
-        <v>169.7812294845075</v>
+        <v>225.0498016056243</v>
       </c>
       <c r="AC12" t="n">
-        <v>153.5775472320054</v>
+        <v>203.5713643998286</v>
       </c>
       <c r="AD12" t="n">
-        <v>124086.9428117405</v>
+        <v>164480.737631714</v>
       </c>
       <c r="AE12" t="n">
-        <v>169781.2294845075</v>
+        <v>225049.8016056244</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.179409520357153e-06</v>
+        <v>4.774470358436137e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>153577.5472320054</v>
+        <v>203571.3643998286</v>
       </c>
     </row>
   </sheetData>
@@ -24347,28 +24347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.0723627282385</v>
+        <v>192.1362633346999</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.4944068256319</v>
+        <v>262.8893119481161</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.5503792268996</v>
+        <v>237.7995249833313</v>
       </c>
       <c r="AD2" t="n">
-        <v>145072.3627282385</v>
+        <v>192136.2633346999</v>
       </c>
       <c r="AE2" t="n">
-        <v>198494.4068256319</v>
+        <v>262889.3119481161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.869179368738434e-06</v>
+        <v>4.400594528761098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>179550.3792268996</v>
+        <v>237799.5249833313</v>
       </c>
     </row>
     <row r="3">
@@ -24453,28 +24453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.2119715540627</v>
+        <v>169.2757826519731</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.21581109186</v>
+        <v>231.6105937447958</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2569687701641</v>
+        <v>209.5060037453693</v>
       </c>
       <c r="AD3" t="n">
-        <v>122211.9715540627</v>
+        <v>169275.7826519731</v>
       </c>
       <c r="AE3" t="n">
-        <v>167215.8110918601</v>
+        <v>231610.5937447958</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.16757275039465e-06</v>
+        <v>4.858254407764143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>151256.9687701641</v>
+        <v>209506.0037453693</v>
       </c>
     </row>
     <row r="4">
@@ -24559,28 +24559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.9770528196375</v>
+        <v>167.0408639175479</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.1578966817652</v>
+        <v>228.5526793347009</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.4908974195579</v>
+        <v>206.7399323947631</v>
       </c>
       <c r="AD4" t="n">
-        <v>119977.0528196375</v>
+        <v>167040.8639175479</v>
       </c>
       <c r="AE4" t="n">
-        <v>164157.8966817652</v>
+        <v>228552.6793347009</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.260293707889921e-06</v>
+        <v>5.000464874875716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>148490.8974195579</v>
+        <v>206739.932394763</v>
       </c>
     </row>
     <row r="5">
@@ -24665,28 +24665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.5932644217042</v>
+        <v>157.7989730360852</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.2645363472782</v>
+        <v>215.9075165072401</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.7782367380458</v>
+        <v>195.3016061599535</v>
       </c>
       <c r="AD5" t="n">
-        <v>118593.2644217042</v>
+        <v>157798.9730360853</v>
       </c>
       <c r="AE5" t="n">
-        <v>162264.5363472782</v>
+        <v>215907.5165072401</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.302822851676714e-06</v>
+        <v>5.065693810891433e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>146778.2367380458</v>
+        <v>195301.6061599535</v>
       </c>
     </row>
     <row r="6">
@@ -24771,28 +24771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.4721201631094</v>
+        <v>156.6778287774904</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.7305373112756</v>
+        <v>214.3735174712375</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.3906404170577</v>
+        <v>193.9140098389654</v>
       </c>
       <c r="AD6" t="n">
-        <v>117472.1201631094</v>
+        <v>156677.8287774904</v>
       </c>
       <c r="AE6" t="n">
-        <v>160730.5373112756</v>
+        <v>214373.5174712375</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.336310575244494e-06</v>
+        <v>5.117055498040967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>145390.6404170577</v>
+        <v>193914.0098389654</v>
       </c>
     </row>
     <row r="7">
@@ -24877,28 +24877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.08809489369</v>
+        <v>155.2938035080711</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.8368528787714</v>
+        <v>212.4798330387333</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.6776865689883</v>
+        <v>192.201055990896</v>
       </c>
       <c r="AD7" t="n">
-        <v>116088.09489369</v>
+        <v>155293.8035080711</v>
       </c>
       <c r="AE7" t="n">
-        <v>158836.8528787714</v>
+        <v>212479.8330387333</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.369055894806021e-06</v>
+        <v>5.167278525459552e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>143677.6865689883</v>
+        <v>192201.055990896</v>
       </c>
     </row>
     <row r="8">
@@ -24983,28 +24983,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.2491791656985</v>
+        <v>155.4548877800796</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.0572554862699</v>
+        <v>212.7002356462318</v>
       </c>
       <c r="AC8" t="n">
-        <v>143.8770542609641</v>
+        <v>192.4004236828719</v>
       </c>
       <c r="AD8" t="n">
-        <v>116249.1791656985</v>
+        <v>155454.8877800796</v>
       </c>
       <c r="AE8" t="n">
-        <v>159057.2554862699</v>
+        <v>212700.2356462318</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.368207433084589e-06</v>
+        <v>5.165977200052755e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>143877.0542609642</v>
+        <v>192400.4236828719</v>
       </c>
     </row>
   </sheetData>
@@ -46917,28 +46917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.6563109870764</v>
+        <v>172.4952793270321</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.2967523745242</v>
+        <v>236.0156511297784</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.7575535514674</v>
+        <v>213.4906486360673</v>
       </c>
       <c r="AD2" t="n">
-        <v>126656.3109870764</v>
+        <v>172495.2793270321</v>
       </c>
       <c r="AE2" t="n">
-        <v>173296.7523745242</v>
+        <v>236015.6511297784</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.130736591298962e-06</v>
+        <v>4.891714168980922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>156757.5535514674</v>
+        <v>213490.6486360673</v>
       </c>
     </row>
     <row r="3">
@@ -47023,28 +47023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.8903898472791</v>
+        <v>152.3170311523072</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.8298558783696</v>
+        <v>208.4068817756515</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.9576731419571</v>
+        <v>188.5168214799384</v>
       </c>
       <c r="AD3" t="n">
-        <v>113890.3898472791</v>
+        <v>152317.0311523072</v>
       </c>
       <c r="AE3" t="n">
-        <v>155829.8558783696</v>
+        <v>208406.8817756515</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.385350305353386e-06</v>
+        <v>5.289543074842376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>140957.6731419571</v>
+        <v>188516.8214799384</v>
       </c>
     </row>
     <row r="4">
@@ -47129,28 +47129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.0028946928556</v>
+        <v>150.2589437972915</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.2473017376795</v>
+        <v>205.5909158601144</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.621594343816</v>
+        <v>185.9696073991463</v>
       </c>
       <c r="AD4" t="n">
-        <v>112002.8946928556</v>
+        <v>150258.9437972915</v>
       </c>
       <c r="AE4" t="n">
-        <v>153247.3017376795</v>
+        <v>205590.9158601144</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.461188603248515e-06</v>
+        <v>5.408038919365366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>138621.594343816</v>
+        <v>185969.6073991463</v>
       </c>
     </row>
     <row r="5">
@@ -47235,28 +47235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.6994489903426</v>
+        <v>148.9554980947785</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.463869823536</v>
+        <v>203.807483945971</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.0083706684955</v>
+        <v>184.3563837238257</v>
       </c>
       <c r="AD5" t="n">
-        <v>110699.4489903426</v>
+        <v>148955.4980947785</v>
       </c>
       <c r="AE5" t="n">
-        <v>151463.869823536</v>
+        <v>203807.483945971</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.504415061650947e-06</v>
+        <v>5.475579407961472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>137008.3706684955</v>
+        <v>184356.3837238257</v>
       </c>
     </row>
     <row r="6">
@@ -47341,28 +47341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.7156458134844</v>
+        <v>148.9716949179203</v>
       </c>
       <c r="AB6" t="n">
-        <v>151.4860310315121</v>
+        <v>203.829645153947</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.0284168418858</v>
+        <v>184.376429897216</v>
       </c>
       <c r="AD6" t="n">
-        <v>110715.6458134844</v>
+        <v>148971.6949179203</v>
       </c>
       <c r="AE6" t="n">
-        <v>151486.031031512</v>
+        <v>203829.645153947</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.50617045082465e-06</v>
+        <v>5.47832216891969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>137028.4168418858</v>
+        <v>184376.429897216</v>
       </c>
     </row>
   </sheetData>
@@ -47638,28 +47638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.9113930267732</v>
+        <v>137.2849224765756</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.0714198356342</v>
+        <v>187.8392875156952</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.8940773110132</v>
+        <v>169.9121695493459</v>
       </c>
       <c r="AD2" t="n">
-        <v>100911.3930267731</v>
+        <v>137284.9224765756</v>
       </c>
       <c r="AE2" t="n">
-        <v>138071.4198356342</v>
+        <v>187839.2875156951</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.667338494049242e-06</v>
+        <v>5.976574015734901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>124894.0773110132</v>
+        <v>169912.1695493459</v>
       </c>
     </row>
     <row r="3">
@@ -47744,28 +47744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.63041587584078</v>
+        <v>136.0039453256432</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.318730385006</v>
+        <v>186.0865980650669</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.3086620816373</v>
+        <v>168.32675431997</v>
       </c>
       <c r="AD3" t="n">
-        <v>99630.41587584079</v>
+        <v>136003.9453256432</v>
       </c>
       <c r="AE3" t="n">
-        <v>136318.730385006</v>
+        <v>186086.5980650669</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.75771488417841e-06</v>
+        <v>6.123858261723746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>123308.6620816373</v>
+        <v>168326.75431997</v>
       </c>
     </row>
   </sheetData>
@@ -48041,28 +48041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.9725819903643</v>
+        <v>251.9677001188913</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.4018441454563</v>
+        <v>344.7533233329045</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.0722646341192</v>
+        <v>311.8505500184432</v>
       </c>
       <c r="AD2" t="n">
-        <v>193972.5819903643</v>
+        <v>251967.7001188913</v>
       </c>
       <c r="AE2" t="n">
-        <v>265401.8441454563</v>
+        <v>344753.3233329045</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.269172373383646e-06</v>
+        <v>3.352431707147972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>240072.2646341192</v>
+        <v>311850.5500184433</v>
       </c>
     </row>
     <row r="3">
@@ -48147,28 +48147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.5273085825463</v>
+        <v>211.2252310718521</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.0087896844611</v>
+        <v>289.0076797518955</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.9160209848241</v>
+        <v>261.4251924212857</v>
       </c>
       <c r="AD3" t="n">
-        <v>161527.3085825462</v>
+        <v>211225.2310718521</v>
       </c>
       <c r="AE3" t="n">
-        <v>221008.7896844611</v>
+        <v>289007.6797518955</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.659927642506746e-06</v>
+        <v>3.929726041112588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.05729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>199916.0209848241</v>
+        <v>261425.1924212857</v>
       </c>
     </row>
     <row r="4">
@@ -48253,28 +48253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.7310339882774</v>
+        <v>198.3436156230117</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.5003622527989</v>
+        <v>271.3824851980357</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.0785732940019</v>
+        <v>245.4821216985248</v>
       </c>
       <c r="AD4" t="n">
-        <v>148731.0339882774</v>
+        <v>198343.6156230117</v>
       </c>
       <c r="AE4" t="n">
-        <v>203500.3622527989</v>
+        <v>271382.4851980357</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.797179446019932e-06</v>
+        <v>4.132499221042826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>184078.5732940019</v>
+        <v>245482.1216985248</v>
       </c>
     </row>
     <row r="5">
@@ -48359,28 +48359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.5111409196513</v>
+        <v>187.9972086243078</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.4630066215359</v>
+        <v>257.2260746911539</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.3310986212302</v>
+        <v>232.6767791417684</v>
       </c>
       <c r="AD5" t="n">
-        <v>146511.1409196513</v>
+        <v>187997.2086243078</v>
       </c>
       <c r="AE5" t="n">
-        <v>200463.0066215359</v>
+        <v>257226.0746911539</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.872341734114238e-06</v>
+        <v>4.243542542715833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.15885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>181331.0986212303</v>
+        <v>232676.7791417684</v>
       </c>
     </row>
     <row r="6">
@@ -48465,28 +48465,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.1788643796862</v>
+        <v>186.6649320843426</v>
       </c>
       <c r="AB6" t="n">
-        <v>198.6401270836637</v>
+        <v>255.4031951532818</v>
       </c>
       <c r="AC6" t="n">
-        <v>179.6821921480246</v>
+        <v>231.0278726685627</v>
       </c>
       <c r="AD6" t="n">
-        <v>145178.8643796862</v>
+        <v>186664.9320843426</v>
       </c>
       <c r="AE6" t="n">
-        <v>198640.1270836637</v>
+        <v>255403.1951532818</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.909959806897762e-06</v>
+        <v>4.299118761358596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>179682.1921480246</v>
+        <v>231027.8726685627</v>
       </c>
     </row>
     <row r="7">
@@ -48571,28 +48571,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.6076458518506</v>
+        <v>185.3054788326055</v>
       </c>
       <c r="AB7" t="n">
-        <v>185.5443636415253</v>
+        <v>253.5431312394113</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.8362699887803</v>
+        <v>229.3453306440153</v>
       </c>
       <c r="AD7" t="n">
-        <v>135607.6458518506</v>
+        <v>185305.4788326055</v>
       </c>
       <c r="AE7" t="n">
-        <v>185544.3636415253</v>
+        <v>253543.1312394113</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.943885006044161e-06</v>
+        <v>4.349239199375434e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>167836.2699887803</v>
+        <v>229345.3306440153</v>
       </c>
     </row>
     <row r="8">
@@ -48677,28 +48677,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.793165498307</v>
+        <v>184.4909984790619</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.4299556894703</v>
+        <v>252.4287232873563</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.8282195675876</v>
+        <v>228.3372802228227</v>
       </c>
       <c r="AD8" t="n">
-        <v>134793.165498307</v>
+        <v>184490.9984790619</v>
       </c>
       <c r="AE8" t="n">
-        <v>184429.9556894703</v>
+        <v>252428.7232873563</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.963580332108832e-06</v>
+        <v>4.378336696047037e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>166828.2195675876</v>
+        <v>228337.2802228227</v>
       </c>
     </row>
     <row r="9">
@@ -48783,28 +48783,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>134.1617159769055</v>
+        <v>183.8595489576604</v>
       </c>
       <c r="AB9" t="n">
-        <v>183.5659785967024</v>
+        <v>251.5647461945884</v>
       </c>
       <c r="AC9" t="n">
-        <v>166.0466992359538</v>
+        <v>227.5557598911888</v>
       </c>
       <c r="AD9" t="n">
-        <v>134161.7159769055</v>
+        <v>183859.5489576604</v>
       </c>
       <c r="AE9" t="n">
-        <v>183565.9785967024</v>
+        <v>251564.7461945884</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.978524160760403e-06</v>
+        <v>4.400414421646616e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>166046.6992359537</v>
+        <v>227555.7598911888</v>
       </c>
     </row>
     <row r="10">
@@ -48889,28 +48889,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.1873760148153</v>
+        <v>182.8852089955702</v>
       </c>
       <c r="AB10" t="n">
-        <v>182.2328436757259</v>
+        <v>250.2316112736118</v>
       </c>
       <c r="AC10" t="n">
-        <v>164.8407968407682</v>
+        <v>226.3498574960033</v>
       </c>
       <c r="AD10" t="n">
-        <v>133187.3760148153</v>
+        <v>182885.2089955702</v>
       </c>
       <c r="AE10" t="n">
-        <v>182232.8436757259</v>
+        <v>250231.6112736118</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.996865433158129e-06</v>
+        <v>4.427511465422048e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>164840.7968407682</v>
+        <v>226349.8574960033</v>
       </c>
     </row>
     <row r="11">
@@ -48995,28 +48995,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.9456902693549</v>
+        <v>182.6435232501098</v>
       </c>
       <c r="AB11" t="n">
-        <v>181.9021585763646</v>
+        <v>249.9009261742505</v>
       </c>
       <c r="AC11" t="n">
-        <v>164.5416718631704</v>
+        <v>226.0507325184055</v>
       </c>
       <c r="AD11" t="n">
-        <v>132945.6902693549</v>
+        <v>182643.5232501098</v>
       </c>
       <c r="AE11" t="n">
-        <v>181902.1585763646</v>
+        <v>249900.9261742505</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.996545384109578e-06</v>
+        <v>4.427038631101133e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH11" t="n">
-        <v>164541.6718631704</v>
+        <v>226050.7325184055</v>
       </c>
     </row>
     <row r="12">
@@ -49101,28 +49101,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>132.175388452799</v>
+        <v>181.8732214335539</v>
       </c>
       <c r="AB12" t="n">
-        <v>180.8481976476355</v>
+        <v>248.8469652455215</v>
       </c>
       <c r="AC12" t="n">
-        <v>163.5882994862355</v>
+        <v>225.0973601414706</v>
       </c>
       <c r="AD12" t="n">
-        <v>132175.388452799</v>
+        <v>181873.2214335539</v>
       </c>
       <c r="AE12" t="n">
-        <v>180848.1976476355</v>
+        <v>248846.9652455215</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.013778794416166e-06</v>
+        <v>4.452498940688787e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>163588.2994862355</v>
+        <v>225097.3601414706</v>
       </c>
     </row>
     <row r="13">
@@ -49207,28 +49207,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>131.8027706915661</v>
+        <v>181.500603672321</v>
       </c>
       <c r="AB13" t="n">
-        <v>180.3383655879815</v>
+        <v>248.3371331858675</v>
       </c>
       <c r="AC13" t="n">
-        <v>163.1271250828009</v>
+        <v>224.6361857380359</v>
       </c>
       <c r="AD13" t="n">
-        <v>131802.7706915661</v>
+        <v>181500.603672321</v>
       </c>
       <c r="AE13" t="n">
-        <v>180338.3655879815</v>
+        <v>248337.1331858675</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.015206705555855e-06</v>
+        <v>4.454608509197479e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH13" t="n">
-        <v>163127.1250828009</v>
+        <v>224636.1857380359</v>
       </c>
     </row>
     <row r="14">
@@ -49313,28 +49313,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>131.1039183062874</v>
+        <v>180.8017512870423</v>
       </c>
       <c r="AB14" t="n">
-        <v>179.3821649232524</v>
+        <v>247.3809325211383</v>
       </c>
       <c r="AC14" t="n">
-        <v>162.2621828674771</v>
+        <v>223.7712435227122</v>
       </c>
       <c r="AD14" t="n">
-        <v>131103.9183062874</v>
+        <v>180801.7512870423</v>
       </c>
       <c r="AE14" t="n">
-        <v>179382.1649232524</v>
+        <v>247380.9325211383</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.014591226616334e-06</v>
+        <v>4.453699212426491e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>162262.1828674771</v>
+        <v>223771.2435227121</v>
       </c>
     </row>
     <row r="15">
@@ -49419,28 +49419,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>130.5633289981947</v>
+        <v>180.2611619789496</v>
       </c>
       <c r="AB15" t="n">
-        <v>178.6425067828032</v>
+        <v>246.6412743806891</v>
       </c>
       <c r="AC15" t="n">
-        <v>161.5931166618354</v>
+        <v>223.1021773170705</v>
       </c>
       <c r="AD15" t="n">
-        <v>130563.3289981947</v>
+        <v>180261.1619789496</v>
       </c>
       <c r="AE15" t="n">
-        <v>178642.5067828032</v>
+        <v>246641.2743806891</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.03234163923212e-06</v>
+        <v>4.479923331301773e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>161593.1166618354</v>
+        <v>223102.1773170705</v>
       </c>
     </row>
     <row r="16">
@@ -49525,28 +49525,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>130.7371455394247</v>
+        <v>180.4349785201796</v>
       </c>
       <c r="AB16" t="n">
-        <v>178.8803302427586</v>
+        <v>246.8790978406446</v>
       </c>
       <c r="AC16" t="n">
-        <v>161.8082425845601</v>
+        <v>223.3173032397952</v>
       </c>
       <c r="AD16" t="n">
-        <v>130737.1455394247</v>
+        <v>180434.9785201796</v>
       </c>
       <c r="AE16" t="n">
-        <v>178880.3302427586</v>
+        <v>246879.0978406446</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.032218543444216e-06</v>
+        <v>4.479741471947576e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>161808.2425845601</v>
+        <v>223317.3032397952</v>
       </c>
     </row>
   </sheetData>
@@ -49822,28 +49822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.5443889020368</v>
+        <v>294.7762516276927</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.9680273286892</v>
+        <v>403.3258720874127</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.3851138433895</v>
+        <v>364.8330169268061</v>
       </c>
       <c r="AD2" t="n">
-        <v>226544.3889020368</v>
+        <v>294776.2516276927</v>
       </c>
       <c r="AE2" t="n">
-        <v>309968.0273286892</v>
+        <v>403325.8720874127</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.968553780752301e-06</v>
+        <v>2.85867280600745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>280385.1138433895</v>
+        <v>364833.0169268061</v>
       </c>
     </row>
     <row r="3">
@@ -49928,28 +49928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.9426585012659</v>
+        <v>236.56019753164</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.1007515204838</v>
+        <v>323.6720985619967</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.9949955859778</v>
+        <v>292.7812877519793</v>
       </c>
       <c r="AD3" t="n">
-        <v>176942.6585012659</v>
+        <v>236560.19753164</v>
       </c>
       <c r="AE3" t="n">
-        <v>242100.7515204838</v>
+        <v>323672.0985619967</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.395131494504225e-06</v>
+        <v>3.478135744675771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>218994.9955859778</v>
+        <v>292781.2877519793</v>
       </c>
     </row>
     <row r="4">
@@ -50034,28 +50034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>170.4397181717888</v>
+        <v>221.5283638700074</v>
       </c>
       <c r="AB4" t="n">
-        <v>233.203141672218</v>
+        <v>303.1048805884635</v>
       </c>
       <c r="AC4" t="n">
-        <v>210.9465611337538</v>
+        <v>274.1769761955618</v>
       </c>
       <c r="AD4" t="n">
-        <v>170439.7181717888</v>
+        <v>221528.3638700074</v>
       </c>
       <c r="AE4" t="n">
-        <v>233203.141672218</v>
+        <v>303104.8805884635</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.556216121409044e-06</v>
+        <v>3.712057848761078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>210946.5611337538</v>
+        <v>274176.9761955618</v>
       </c>
     </row>
     <row r="5">
@@ -50140,28 +50140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.940594662898</v>
+        <v>210.1144917071371</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.4695335818361</v>
+        <v>287.4879171507308</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.7145465172553</v>
+        <v>260.0504738297756</v>
       </c>
       <c r="AD5" t="n">
-        <v>158940.594662898</v>
+        <v>210114.4917071371</v>
       </c>
       <c r="AE5" t="n">
-        <v>217469.5335818361</v>
+        <v>287487.9171507308</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.635572244678061e-06</v>
+        <v>3.827296352172764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.71875</v>
       </c>
       <c r="AH5" t="n">
-        <v>196714.5465172553</v>
+        <v>260050.4738297756</v>
       </c>
     </row>
     <row r="6">
@@ -50246,28 +50246,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.15419153003</v>
+        <v>208.3280885742691</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.0252980049032</v>
+        <v>285.043681573798</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.503585353278</v>
+        <v>257.8395126657983</v>
       </c>
       <c r="AD6" t="n">
-        <v>157154.19153003</v>
+        <v>208328.0885742691</v>
       </c>
       <c r="AE6" t="n">
-        <v>215025.2980049032</v>
+        <v>285043.681573798</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.683779013731167e-06</v>
+        <v>3.89730072853526e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>194503.585353278</v>
+        <v>257839.5126657983</v>
       </c>
     </row>
     <row r="7">
@@ -50352,28 +50352,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>155.7256823611472</v>
+        <v>206.7289872047942</v>
       </c>
       <c r="AB7" t="n">
-        <v>213.0707487386622</v>
+        <v>282.8557205327101</v>
       </c>
       <c r="AC7" t="n">
-        <v>192.7355755257792</v>
+        <v>255.8603675556485</v>
       </c>
       <c r="AD7" t="n">
-        <v>155725.6823611472</v>
+        <v>206728.9872047942</v>
       </c>
       <c r="AE7" t="n">
-        <v>213070.7487386622</v>
+        <v>282855.72053271</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.720977937882383e-06</v>
+        <v>3.951319853602382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>192735.5755257792</v>
+        <v>255860.3675556484</v>
       </c>
     </row>
     <row r="8">
@@ -50458,28 +50458,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>154.6572255239226</v>
+        <v>205.6605303675695</v>
       </c>
       <c r="AB8" t="n">
-        <v>211.6088389569832</v>
+        <v>281.3938107510311</v>
       </c>
       <c r="AC8" t="n">
-        <v>191.41318836186</v>
+        <v>254.5379803917292</v>
       </c>
       <c r="AD8" t="n">
-        <v>154657.2255239226</v>
+        <v>205660.5303675695</v>
       </c>
       <c r="AE8" t="n">
-        <v>211608.8389569832</v>
+        <v>281393.8107510311</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.752174739705628e-06</v>
+        <v>3.996622882596812e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>191413.18836186</v>
+        <v>254537.9803917292</v>
       </c>
     </row>
     <row r="9">
@@ -50564,28 +50564,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>153.8123674497149</v>
+        <v>196.4573711617986</v>
       </c>
       <c r="AB9" t="n">
-        <v>210.4528668673452</v>
+        <v>268.8016423109726</v>
       </c>
       <c r="AC9" t="n">
-        <v>190.3675406260397</v>
+        <v>243.1475908343664</v>
       </c>
       <c r="AD9" t="n">
-        <v>153812.3674497149</v>
+        <v>196457.3711617986</v>
       </c>
       <c r="AE9" t="n">
-        <v>210452.8668673452</v>
+        <v>268801.6423109726</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.772553487056327e-06</v>
+        <v>4.026216268076823e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>190367.5406260397</v>
+        <v>243147.5908343664</v>
       </c>
     </row>
     <row r="10">
@@ -50670,28 +50670,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>153.1499336615902</v>
+        <v>195.7949373736739</v>
       </c>
       <c r="AB10" t="n">
-        <v>209.5464957339172</v>
+        <v>267.8952711775446</v>
       </c>
       <c r="AC10" t="n">
-        <v>189.5476722814859</v>
+        <v>242.3277224898127</v>
       </c>
       <c r="AD10" t="n">
-        <v>153149.9336615902</v>
+        <v>195794.9373736739</v>
       </c>
       <c r="AE10" t="n">
-        <v>209546.4957339172</v>
+        <v>267895.2711775446</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.788851740176151e-06</v>
+        <v>4.049884086266308e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>189547.6722814859</v>
+        <v>242327.7224898126</v>
       </c>
     </row>
     <row r="11">
@@ -50776,28 +50776,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>152.8494385787907</v>
+        <v>195.4944422908744</v>
       </c>
       <c r="AB11" t="n">
-        <v>209.1353451047238</v>
+        <v>267.4841205483511</v>
       </c>
       <c r="AC11" t="n">
-        <v>189.175761291289</v>
+        <v>241.9558114996158</v>
       </c>
       <c r="AD11" t="n">
-        <v>152849.4385787907</v>
+        <v>195494.4422908744</v>
       </c>
       <c r="AE11" t="n">
-        <v>209135.3451047238</v>
+        <v>267484.1205483511</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.787214797723068e-06</v>
+        <v>4.047506969155574e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>189175.761291289</v>
+        <v>241955.8114996158</v>
       </c>
     </row>
     <row r="12">
@@ -50882,28 +50882,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>152.0331026566406</v>
+        <v>194.6781063687242</v>
       </c>
       <c r="AB12" t="n">
-        <v>208.0183982818394</v>
+        <v>266.3671737254667</v>
       </c>
       <c r="AC12" t="n">
-        <v>188.1654143055356</v>
+        <v>240.9454645138624</v>
       </c>
       <c r="AD12" t="n">
-        <v>152033.1026566405</v>
+        <v>194678.1063687242</v>
       </c>
       <c r="AE12" t="n">
-        <v>208018.3982818394</v>
+        <v>266367.1737254667</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.808945801882835e-06</v>
+        <v>4.079064060074888e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.00260416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>188165.4143055356</v>
+        <v>240945.4645138624</v>
       </c>
     </row>
     <row r="13">
@@ -50988,28 +50988,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>143.0530354048394</v>
+        <v>194.1415915945069</v>
       </c>
       <c r="AB13" t="n">
-        <v>195.7314740953245</v>
+        <v>265.6330905420216</v>
       </c>
       <c r="AC13" t="n">
-        <v>177.0511369185714</v>
+        <v>240.2814411991529</v>
       </c>
       <c r="AD13" t="n">
-        <v>143053.0354048394</v>
+        <v>194141.5915945069</v>
       </c>
       <c r="AE13" t="n">
-        <v>195731.4740953245</v>
+        <v>265633.0905420216</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.809942201636886e-06</v>
+        <v>4.080511000924901e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>177051.1369185714</v>
+        <v>240281.4411991528</v>
       </c>
     </row>
     <row r="14">
@@ -51094,28 +51094,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>142.4700883910976</v>
+        <v>193.5586445807652</v>
       </c>
       <c r="AB14" t="n">
-        <v>194.9338602733162</v>
+        <v>264.8354767200134</v>
       </c>
       <c r="AC14" t="n">
-        <v>176.3296462402773</v>
+        <v>239.5599505208588</v>
       </c>
       <c r="AD14" t="n">
-        <v>142470.0883910976</v>
+        <v>193558.6445807652</v>
       </c>
       <c r="AE14" t="n">
-        <v>194933.8602733162</v>
+        <v>264835.4767200134</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.823512217334906e-06</v>
+        <v>4.100216957263162e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH14" t="n">
-        <v>176329.6462402773</v>
+        <v>239559.9505208588</v>
       </c>
     </row>
     <row r="15">
@@ -51200,28 +51200,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>142.2235657115008</v>
+        <v>193.3121219011684</v>
       </c>
       <c r="AB15" t="n">
-        <v>194.596557067279</v>
+        <v>264.4981735139761</v>
       </c>
       <c r="AC15" t="n">
-        <v>176.0245347788161</v>
+        <v>239.2548390593976</v>
       </c>
       <c r="AD15" t="n">
-        <v>142223.5657115008</v>
+        <v>193312.1219011684</v>
       </c>
       <c r="AE15" t="n">
-        <v>194596.557067279</v>
+        <v>264498.1735139761</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.826501416597057e-06</v>
+        <v>4.104557779813198e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>176024.5347788161</v>
+        <v>239254.8390593976</v>
       </c>
     </row>
     <row r="16">
@@ -51306,28 +51306,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>141.7061391307557</v>
+        <v>192.7946953204232</v>
       </c>
       <c r="AB16" t="n">
-        <v>193.8885911922542</v>
+        <v>263.7902076389514</v>
       </c>
       <c r="AC16" t="n">
-        <v>175.3841361732671</v>
+        <v>238.6144404538486</v>
       </c>
       <c r="AD16" t="n">
-        <v>141706.1391307557</v>
+        <v>192794.6953204233</v>
       </c>
       <c r="AE16" t="n">
-        <v>193888.5911922542</v>
+        <v>263790.2076389514</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.829419444448205e-06</v>
+        <v>4.108795249445377e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>175384.1361732672</v>
+        <v>238614.4404538486</v>
       </c>
     </row>
     <row r="17">
@@ -51412,28 +51412,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>141.1492533116051</v>
+        <v>192.2378095012726</v>
       </c>
       <c r="AB17" t="n">
-        <v>193.1266354464242</v>
+        <v>263.0282518931214</v>
       </c>
       <c r="AC17" t="n">
-        <v>174.6949004144073</v>
+        <v>237.9252046949888</v>
       </c>
       <c r="AD17" t="n">
-        <v>141149.2533116051</v>
+        <v>192237.8095012726</v>
       </c>
       <c r="AE17" t="n">
-        <v>193126.6354464242</v>
+        <v>263028.2518931214</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.827996016228133e-06</v>
+        <v>4.106728191088217e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>174694.9004144073</v>
+        <v>237925.2046949888</v>
       </c>
     </row>
     <row r="18">
@@ -51518,28 +51518,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>140.6620557950567</v>
+        <v>191.7506119847242</v>
       </c>
       <c r="AB18" t="n">
-        <v>192.4600303106456</v>
+        <v>262.3616467573427</v>
       </c>
       <c r="AC18" t="n">
-        <v>174.091915137201</v>
+        <v>237.3222194177825</v>
       </c>
       <c r="AD18" t="n">
-        <v>140662.0557950567</v>
+        <v>191750.6119847242</v>
       </c>
       <c r="AE18" t="n">
-        <v>192460.0303106456</v>
+        <v>262361.6467573427</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.847805392290802e-06</v>
+        <v>4.135494753225364e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>174091.915137201</v>
+        <v>237322.2194177825</v>
       </c>
     </row>
     <row r="19">
@@ -51624,28 +51624,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>140.5346028150384</v>
+        <v>191.623159004706</v>
       </c>
       <c r="AB19" t="n">
-        <v>192.2856435205561</v>
+        <v>262.1872599672532</v>
       </c>
       <c r="AC19" t="n">
-        <v>173.9341715776042</v>
+        <v>237.1644758581857</v>
       </c>
       <c r="AD19" t="n">
-        <v>140534.6028150384</v>
+        <v>191623.159004706</v>
       </c>
       <c r="AE19" t="n">
-        <v>192285.6435205561</v>
+        <v>262187.2599672532</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.84638196407073e-06</v>
+        <v>4.133427694868204e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>173934.1715776042</v>
+        <v>237164.4758581856</v>
       </c>
     </row>
     <row r="20">
@@ -51730,28 +51730,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>140.1633758197439</v>
+        <v>191.2519320094115</v>
       </c>
       <c r="AB20" t="n">
-        <v>191.7777143682152</v>
+        <v>261.6793308149124</v>
       </c>
       <c r="AC20" t="n">
-        <v>173.4747184706795</v>
+        <v>236.705022751261</v>
       </c>
       <c r="AD20" t="n">
-        <v>140163.3758197439</v>
+        <v>191251.9320094115</v>
       </c>
       <c r="AE20" t="n">
-        <v>191777.7143682152</v>
+        <v>261679.3308149124</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.847805392290802e-06</v>
+        <v>4.135494753225364e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>173474.7184706795</v>
+        <v>236705.022751261</v>
       </c>
     </row>
     <row r="21">
@@ -51836,28 +51836,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>139.61414321736</v>
+        <v>190.7026994070276</v>
       </c>
       <c r="AB21" t="n">
-        <v>191.0262300912016</v>
+        <v>260.9278465378987</v>
       </c>
       <c r="AC21" t="n">
-        <v>172.7949547983491</v>
+        <v>236.0252590789305</v>
       </c>
       <c r="AD21" t="n">
-        <v>139614.14321736</v>
+        <v>190702.6994070276</v>
       </c>
       <c r="AE21" t="n">
-        <v>191026.2300912016</v>
+        <v>260927.8465378988</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.850747143945618e-06</v>
+        <v>4.139766673830162e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>172794.9547983491</v>
+        <v>236025.2590789305</v>
       </c>
     </row>
     <row r="22">
@@ -51942,28 +51942,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>139.176279167128</v>
+        <v>190.2648353567956</v>
       </c>
       <c r="AB22" t="n">
-        <v>190.427125180476</v>
+        <v>260.3287416271731</v>
       </c>
       <c r="AC22" t="n">
-        <v>172.2530276194538</v>
+        <v>235.4833319000354</v>
       </c>
       <c r="AD22" t="n">
-        <v>139176.279167128</v>
+        <v>190264.8353567956</v>
       </c>
       <c r="AE22" t="n">
-        <v>190427.125180476</v>
+        <v>260328.7416271731</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.848849239652188e-06</v>
+        <v>4.137010596020615e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>172253.0276194538</v>
+        <v>235483.3319000354</v>
       </c>
     </row>
     <row r="23">
@@ -52048,28 +52048,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>139.0377255034609</v>
+        <v>190.1262816931284</v>
       </c>
       <c r="AB23" t="n">
-        <v>190.2375499452904</v>
+        <v>260.1391663919876</v>
       </c>
       <c r="AC23" t="n">
-        <v>172.0815451786439</v>
+        <v>235.3118494592253</v>
       </c>
       <c r="AD23" t="n">
-        <v>139037.7255034609</v>
+        <v>190126.2816931284</v>
       </c>
       <c r="AE23" t="n">
-        <v>190237.5499452904</v>
+        <v>260139.1663919876</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.849323715725546e-06</v>
+        <v>4.137699615473002e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>172081.5451786439</v>
+        <v>235311.8494592253</v>
       </c>
     </row>
   </sheetData>
@@ -52345,28 +52345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.20602139411162</v>
+        <v>129.6990898993961</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.8968345477128</v>
+        <v>177.4600167202894</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.5951015663567</v>
+        <v>160.5234817912524</v>
       </c>
       <c r="AD2" t="n">
-        <v>94206.02139411161</v>
+        <v>129699.0898993961</v>
       </c>
       <c r="AE2" t="n">
-        <v>128896.8345477128</v>
+        <v>177460.0167202895</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814973828820308e-06</v>
+        <v>6.359334080158245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>116595.1015663568</v>
+        <v>160523.4817912524</v>
       </c>
     </row>
   </sheetData>
@@ -52642,28 +52642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.0885451315377</v>
+        <v>197.6585396404117</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.3577688881715</v>
+        <v>270.4451340152235</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.7587116469818</v>
+        <v>244.6342299970193</v>
       </c>
       <c r="AD2" t="n">
-        <v>150088.5451315377</v>
+        <v>197658.5396404117</v>
       </c>
       <c r="AE2" t="n">
-        <v>205357.7688881715</v>
+        <v>270445.1340152235</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.758955718033218e-06</v>
+        <v>4.198872976312094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185758.7116469818</v>
+        <v>244634.2299970193</v>
       </c>
     </row>
     <row r="3">
@@ -52748,28 +52748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.2996661066044</v>
+        <v>174.0124604942343</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.7547280500865</v>
+        <v>238.0915253360525</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.2174347064185</v>
+        <v>215.3684043216031</v>
       </c>
       <c r="AD3" t="n">
-        <v>134299.6661066044</v>
+        <v>174012.4604942343</v>
       </c>
       <c r="AE3" t="n">
-        <v>183754.7280500865</v>
+        <v>238091.5253360526</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.061961660246138e-06</v>
+        <v>4.660019726187005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.10677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>166217.4347064185</v>
+        <v>215368.4043216031</v>
       </c>
     </row>
     <row r="4">
@@ -52854,28 +52854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.663774772791</v>
+        <v>171.233679773114</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.2022323047607</v>
+        <v>234.2894749622643</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.0538087304659</v>
+        <v>211.9292162992768</v>
       </c>
       <c r="AD4" t="n">
-        <v>123663.774772791</v>
+        <v>171233.679773114</v>
       </c>
       <c r="AE4" t="n">
-        <v>169202.2323047607</v>
+        <v>234289.4749622643</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.167231207644247e-06</v>
+        <v>4.820230147437848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>153053.8087304659</v>
+        <v>211929.2162992768</v>
       </c>
     </row>
     <row r="5">
@@ -52960,28 +52960,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.9184545843036</v>
+        <v>161.7165003179541</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.8142082247811</v>
+        <v>221.2676501633963</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.8936943170659</v>
+        <v>200.1501761829628</v>
       </c>
       <c r="AD5" t="n">
-        <v>121918.4545843036</v>
+        <v>161716.5003179541</v>
       </c>
       <c r="AE5" t="n">
-        <v>166814.2082247811</v>
+        <v>221267.6501633963</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.232655617345131e-06</v>
+        <v>4.919799989783866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>150893.6943170659</v>
+        <v>200150.1761829628</v>
       </c>
     </row>
     <row r="6">
@@ -53066,28 +53066,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.7426611345646</v>
+        <v>160.3701146676229</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.205435754503</v>
+        <v>219.4254659182713</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.4384608334242</v>
+        <v>198.4838074166701</v>
       </c>
       <c r="AD6" t="n">
-        <v>120742.6611345646</v>
+        <v>160370.1146676229</v>
       </c>
       <c r="AE6" t="n">
-        <v>165205.4357545029</v>
+        <v>219425.4659182713</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.265890381378488e-06</v>
+        <v>4.970380197237594e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>149438.4608334242</v>
+        <v>198483.8074166701</v>
       </c>
     </row>
     <row r="7">
@@ -53172,28 +53172,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.1067727932535</v>
+        <v>159.7342263263118</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.3353852725078</v>
+        <v>218.5554154362762</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.6514467483069</v>
+        <v>197.6967933315528</v>
       </c>
       <c r="AD7" t="n">
-        <v>120106.7727932535</v>
+        <v>159734.2263263118</v>
       </c>
       <c r="AE7" t="n">
-        <v>164335.3852725078</v>
+        <v>218555.4154362762</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.276237053200193e-06</v>
+        <v>4.98612686559583e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>148651.4467483069</v>
+        <v>197696.7933315528</v>
       </c>
     </row>
     <row r="8">
@@ -53278,28 +53278,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.0533527441488</v>
+        <v>158.680806277207</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.8940494877108</v>
+        <v>217.1140796514792</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.347670027883</v>
+        <v>196.3930166111289</v>
       </c>
       <c r="AD8" t="n">
-        <v>119053.3527441488</v>
+        <v>158680.806277207</v>
       </c>
       <c r="AE8" t="n">
-        <v>162894.0494877108</v>
+        <v>217114.0796514792</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.299438680921593e-06</v>
+        <v>5.021437576459754e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH8" t="n">
-        <v>147347.670027883</v>
+        <v>196393.0166111289</v>
       </c>
     </row>
     <row r="9">
@@ -53384,28 +53384,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>118.9076686399005</v>
+        <v>158.5351221729588</v>
       </c>
       <c r="AB9" t="n">
-        <v>162.6947180691493</v>
+        <v>216.9147482329177</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.1673625201455</v>
+        <v>196.2127091033914</v>
       </c>
       <c r="AD9" t="n">
-        <v>118907.6686399005</v>
+        <v>158535.1221729587</v>
       </c>
       <c r="AE9" t="n">
-        <v>162694.7180691493</v>
+        <v>216914.7482329177</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.296904268884458e-06</v>
+        <v>5.017580437998267e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH9" t="n">
-        <v>147167.3625201455</v>
+        <v>196212.7091033914</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.2298425015414</v>
+        <v>231.2227983721667</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.3889569886674</v>
+        <v>316.3692335625768</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.6374495147404</v>
+        <v>286.1753979384663</v>
       </c>
       <c r="AD2" t="n">
-        <v>174229.8425015414</v>
+        <v>231222.7983721668</v>
       </c>
       <c r="AE2" t="n">
-        <v>238388.9569886674</v>
+        <v>316369.2335625768</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.450283582632579e-06</v>
+        <v>3.65805456389713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>215637.4495147404</v>
+        <v>286175.3979384663</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.6031122545313</v>
+        <v>194.6004391727178</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.2206017425219</v>
+        <v>266.2609060414559</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.2072671201427</v>
+        <v>240.8493388684658</v>
       </c>
       <c r="AD3" t="n">
-        <v>145603.1122545313</v>
+        <v>194600.4391727177</v>
       </c>
       <c r="AE3" t="n">
-        <v>199220.6017425219</v>
+        <v>266260.9060414559</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.808851851066898e-06</v>
+        <v>4.193364966379443e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180207.2671201427</v>
+        <v>240849.3388684658</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.884830588758</v>
+        <v>182.7160258624644</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.1330847284036</v>
+        <v>250.0001274470636</v>
       </c>
       <c r="AC4" t="n">
-        <v>175.6052955894753</v>
+        <v>226.1404661609712</v>
       </c>
       <c r="AD4" t="n">
-        <v>141884.830588758</v>
+        <v>182716.0258624644</v>
       </c>
       <c r="AE4" t="n">
-        <v>194133.0847284036</v>
+        <v>250000.1274470636</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.942076037234159e-06</v>
+        <v>4.392256778610839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>175605.2955894753</v>
+        <v>226140.4661609711</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.9076707920615</v>
+        <v>180.8196568556763</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.481894533345</v>
+        <v>247.4054317100814</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.256955827063</v>
+        <v>223.7934045434473</v>
       </c>
       <c r="AD5" t="n">
-        <v>131907.6707920615</v>
+        <v>180819.6568556763</v>
       </c>
       <c r="AE5" t="n">
-        <v>180481.894533345</v>
+        <v>247405.4317100813</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.00197157863602e-06</v>
+        <v>4.481675472893874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>163256.955827063</v>
+        <v>223793.4045434473</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.674546375699</v>
+        <v>179.5865324393138</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.7946793052689</v>
+        <v>245.7182164820053</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.7307660523325</v>
+        <v>222.2672147687168</v>
       </c>
       <c r="AD6" t="n">
-        <v>130674.546375699</v>
+        <v>179586.5324393138</v>
       </c>
       <c r="AE6" t="n">
-        <v>178794.6793052689</v>
+        <v>245718.2164820053</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.039025813195003e-06</v>
+        <v>4.536994135925757e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH6" t="n">
-        <v>161730.7660523325</v>
+        <v>222267.2147687168</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.4569107817989</v>
+        <v>178.3688968454137</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.1286565674044</v>
+        <v>244.0521937441408</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.2237461862917</v>
+        <v>220.760194902676</v>
       </c>
       <c r="AD7" t="n">
-        <v>129456.9107817989</v>
+        <v>178368.8968454137</v>
       </c>
       <c r="AE7" t="n">
-        <v>177128.6565674045</v>
+        <v>244052.1937441408</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.074117909060435e-06</v>
+        <v>4.589383501118883e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>160223.7461862917</v>
+        <v>220760.194902676</v>
       </c>
     </row>
     <row r="8">
@@ -54317,28 +54317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>128.8284939864517</v>
+        <v>177.7404800500666</v>
       </c>
       <c r="AB8" t="n">
-        <v>176.2688289842186</v>
+        <v>243.1923661609549</v>
       </c>
       <c r="AC8" t="n">
-        <v>159.4459793408693</v>
+        <v>219.9824280572536</v>
       </c>
       <c r="AD8" t="n">
-        <v>128828.4939864518</v>
+        <v>177740.4800500666</v>
       </c>
       <c r="AE8" t="n">
-        <v>176268.8289842186</v>
+        <v>243192.3661609549</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.090267819845817e-06</v>
+        <v>4.613493875637871e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>159445.9793408693</v>
+        <v>219982.4280572536</v>
       </c>
     </row>
     <row r="9">
@@ -54423,28 +54423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.7927991832204</v>
+        <v>168.7092458029474</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.8517456628082</v>
+        <v>230.8354330341174</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.1641404627648</v>
+        <v>208.8048232849729</v>
       </c>
       <c r="AD9" t="n">
-        <v>127792.7991832204</v>
+        <v>168709.2458029474</v>
       </c>
       <c r="AE9" t="n">
-        <v>174851.7456628082</v>
+        <v>230835.4330341175</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.108304402451921e-06</v>
+        <v>4.640420882694122e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>158164.1404627648</v>
+        <v>208804.8232849729</v>
       </c>
     </row>
     <row r="10">
@@ -54529,28 +54529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>127.5285247116732</v>
+        <v>168.4449713314002</v>
       </c>
       <c r="AB10" t="n">
-        <v>174.4901536718707</v>
+        <v>230.47384104318</v>
       </c>
       <c r="AC10" t="n">
-        <v>157.8370583039448</v>
+        <v>208.4777411261529</v>
       </c>
       <c r="AD10" t="n">
-        <v>127528.5247116732</v>
+        <v>168444.9713314002</v>
       </c>
       <c r="AE10" t="n">
-        <v>174490.1536718707</v>
+        <v>230473.84104318</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.106367419382646e-06</v>
+        <v>4.637529139955864e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>157837.0583039448</v>
+        <v>208477.7411261529</v>
       </c>
     </row>
     <row r="11">
@@ -54635,28 +54635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>126.8054149905579</v>
+        <v>167.5512694096927</v>
       </c>
       <c r="AB11" t="n">
-        <v>173.5007630500919</v>
+        <v>229.2510386465543</v>
       </c>
       <c r="AC11" t="n">
-        <v>156.9420937344898</v>
+        <v>207.3716412740468</v>
       </c>
       <c r="AD11" t="n">
-        <v>126805.4149905579</v>
+        <v>167551.2694096927</v>
       </c>
       <c r="AE11" t="n">
-        <v>173500.7630500919</v>
+        <v>229251.0386465543</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.121259548954214e-06</v>
+        <v>4.659761759450009e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>156942.0937344898</v>
+        <v>207371.6412740468</v>
       </c>
     </row>
     <row r="12">
@@ -54741,28 +54741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>126.2745434963184</v>
+        <v>167.0203979154532</v>
       </c>
       <c r="AB12" t="n">
-        <v>172.7744012512764</v>
+        <v>228.5246768477387</v>
       </c>
       <c r="AC12" t="n">
-        <v>156.2850548862978</v>
+        <v>206.7146024258548</v>
       </c>
       <c r="AD12" t="n">
-        <v>126274.5434963184</v>
+        <v>167020.3979154532</v>
       </c>
       <c r="AE12" t="n">
-        <v>172774.4012512764</v>
+        <v>228524.6768477387</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.124705869480066e-06</v>
+        <v>4.664906808218079e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>156285.0548862978</v>
+        <v>206714.6024258548</v>
       </c>
     </row>
     <row r="13">
@@ -54847,28 +54847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>125.9885437057709</v>
+        <v>166.7343981249057</v>
       </c>
       <c r="AB13" t="n">
-        <v>172.3830837204292</v>
+        <v>228.1333593168915</v>
       </c>
       <c r="AC13" t="n">
-        <v>155.9310841513769</v>
+        <v>206.3606316909339</v>
       </c>
       <c r="AD13" t="n">
-        <v>125988.5437057709</v>
+        <v>166734.3981249057</v>
       </c>
       <c r="AE13" t="n">
-        <v>172383.0837204292</v>
+        <v>228133.3593168915</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.126441607555131e-06</v>
+        <v>4.667498110152363e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>155931.0841513769</v>
+        <v>206360.6316909339</v>
       </c>
     </row>
   </sheetData>
